--- a/practice01/May17.xlsx
+++ b/practice01/May17.xlsx
@@ -1,354 +1,360 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="kabeer" sheetId="1" r:id="rId1"/>
-    <sheet name="UTAM" sheetId="2" r:id="rId2"/>
-    <sheet name="JAVED " sheetId="3" r:id="rId3"/>
+    <sheet name="kabeer" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="UTAM" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="JAVED " sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="183">
   <si>
-    <t>kaber</t>
-  </si>
-  <si>
-    <t>PETTY CASH RECORD</t>
-  </si>
-  <si>
-    <t>DATE</t>
-  </si>
-  <si>
-    <t>DR</t>
-  </si>
-  <si>
-    <t>CR</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Received cash</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>Paid cash</t>
-  </si>
-  <si>
-    <t>Balance</t>
-  </si>
-  <si>
-    <t>opening balance</t>
-  </si>
-  <si>
-    <t>cash withdrawl/Noor bank</t>
-  </si>
-  <si>
-    <t>Paid Majid</t>
-  </si>
-  <si>
-    <t>cash chq#106139</t>
-  </si>
-  <si>
-    <t>Paid Utam</t>
-  </si>
-  <si>
-    <t>Ply wood</t>
-  </si>
-  <si>
-    <t>Al saray building/suplier</t>
-  </si>
-  <si>
-    <t>shine sus co/sub contracter</t>
-  </si>
-  <si>
-    <t>Deposit ADIB</t>
-  </si>
-  <si>
-    <t>ATM/Noor Bank</t>
-  </si>
-  <si>
-    <t>Labour camp</t>
-  </si>
-  <si>
-    <t>sajjad salary</t>
-  </si>
-  <si>
-    <t>car loan</t>
-  </si>
-  <si>
-    <t>withdrawl 100145</t>
-  </si>
-  <si>
-    <t>withdrawl 100153</t>
-  </si>
-  <si>
-    <t>Paid JAWED</t>
-  </si>
-  <si>
-    <t>Hanif garage/pick up</t>
-  </si>
-  <si>
-    <t>withdrawl 100154</t>
-  </si>
-  <si>
-    <t>Garage</t>
-  </si>
-  <si>
-    <t>withdrawl 100156</t>
-  </si>
-  <si>
-    <t>Interglobal/suplier</t>
-  </si>
-  <si>
-    <t>withdrawl 100117</t>
-  </si>
-  <si>
-    <t>withdrawl 100160</t>
-  </si>
-  <si>
-    <t>Delta /gum machine</t>
-  </si>
-  <si>
-    <t>withdrawl 100171</t>
-  </si>
-  <si>
-    <t>Javed account salary</t>
-  </si>
-  <si>
-    <t>usman comission</t>
-  </si>
-  <si>
-    <t>bank loan not paid</t>
-  </si>
-  <si>
-    <t>Rak bank  loan</t>
-  </si>
-  <si>
-    <t>withdrawl 100177</t>
-  </si>
-  <si>
-    <t>withdrawl 100163</t>
-  </si>
-  <si>
-    <t>cash paid comision</t>
-  </si>
-  <si>
-    <t>cash paid to masom</t>
-  </si>
-  <si>
-    <t>petty cash paid</t>
-  </si>
-  <si>
-    <t>deposit UNB</t>
-  </si>
-  <si>
-    <t>BMW Expnce kabir</t>
-  </si>
-  <si>
-    <t>cash piad javed</t>
-  </si>
-  <si>
-    <t>al kiran comision</t>
-  </si>
-  <si>
-    <t>kabir paid cash</t>
-  </si>
-  <si>
-    <t>UTAM PAID</t>
-  </si>
-  <si>
-    <t>noor bankdeposit</t>
-  </si>
-  <si>
-    <t>Delta chen suplier</t>
-  </si>
-  <si>
-    <t>utam/javbid acnt</t>
-  </si>
-  <si>
-    <t>visa expence (noorzaman)</t>
-  </si>
-  <si>
-    <t>cash deposit fgb loan</t>
-  </si>
-  <si>
-    <t>cash deposit javid</t>
-  </si>
-  <si>
-    <t>rom rent/LABOUR</t>
+    <t xml:space="preserve">kaber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PETTY CASH RECORD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Received cash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paid cash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">opening balance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cash withdrawl/Noor bank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paid Majid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cash chq#106139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paid Utam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ply wood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al saray building/suplier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shine sus co/sub contracter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deposit ADIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATM/Noor Bank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Labour camp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sajjad salary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">car loan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">withdrawl 100145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">withdrawl 100153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paid JAWED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hanif garage/pick up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">withdrawl 100154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">withdrawl 100156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interglobal/suplier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">withdrawl 100117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">withdrawl 100160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delta /gum machine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">withdrawl 100171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Javed account salary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">usman comission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bank loan not paid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rak bank  loan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">withdrawl 100177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">withdrawl 100163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cash paid comision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cash paid to masom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">petty cash paid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deposit UNB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMW Expnce kabir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cash piad javed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">al kiran comision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kabir paid cash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UTAM PAID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noor bankdeposit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delta chen suplier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">utam/javbid acnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">visa expence (noorzaman)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cash deposit fgb loan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cash deposit javid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rom rent/LABOUR</t>
   </si>
   <si>
     <t xml:space="preserve">Javed account </t>
   </si>
   <si>
-    <t>Adjusted kabir acnt</t>
-  </si>
-  <si>
-    <t>javid account</t>
+    <t xml:space="preserve">Adjusted kabir acnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">javid account</t>
   </si>
   <si>
     <t xml:space="preserve">kabir personal </t>
   </si>
   <si>
-    <t>labour wps salary</t>
-  </si>
-  <si>
-    <t>Labour rent</t>
-  </si>
-  <si>
-    <t>cash withdrawl</t>
-  </si>
-  <si>
-    <t>unb for loan</t>
-  </si>
-  <si>
-    <t>office comision</t>
-  </si>
-  <si>
-    <t>100098 withdrawl</t>
-  </si>
-  <si>
-    <t>WPS SALARY</t>
-  </si>
-  <si>
-    <t>KABEER PERSONAL</t>
-  </si>
-  <si>
-    <t>UTAM ACCOUNT</t>
-  </si>
-  <si>
-    <t>utam</t>
-  </si>
-  <si>
-    <t>Petty cash</t>
-  </si>
-  <si>
-    <t>opening</t>
+    <t xml:space="preserve">labour wps salary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Labour rent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cash withdrawl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unb for loan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">office comision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100098 withdrawl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WPS SALARY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KABEER PERSONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UTAM ACCOUNT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">utam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petty cash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">opening</t>
   </si>
   <si>
     <t xml:space="preserve">Cash Received </t>
   </si>
   <si>
-    <t>unis khan cheq replacement</t>
-  </si>
-  <si>
-    <t>unis khan jan balance paid</t>
-  </si>
-  <si>
-    <t>GRP(Material)</t>
-  </si>
-  <si>
-    <t>Bau tech</t>
+    <t xml:space="preserve">unis khan cheq replacement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unis khan jan balance paid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRP(Material)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bau tech</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>wps salary 4 april</t>
-  </si>
-  <si>
-    <t>usman april bill</t>
-  </si>
-  <si>
-    <t>PU spry charge navid</t>
-  </si>
-  <si>
-    <t>yasir mehmod</t>
-  </si>
-  <si>
-    <t>Adv cheq replacement</t>
-  </si>
-  <si>
-    <t>Afzal sub contracter</t>
-  </si>
-  <si>
-    <t>Majid acount javid</t>
-  </si>
-  <si>
-    <t>Labour charge Navid</t>
-  </si>
-  <si>
-    <t>Material for store</t>
-  </si>
-  <si>
-    <t>Anees bill</t>
-  </si>
-  <si>
-    <t>ply wood labour charge</t>
-  </si>
-  <si>
-    <t>utam point(MARCH</t>
+    <t xml:space="preserve">wps salary 4 april</t>
+  </si>
+  <si>
+    <t xml:space="preserve">usman april bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PU spry charge navid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yasir mehmod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adv cheq replacement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afzal sub contracter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Majid acount javid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Labour charge Navid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Material for store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anees bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ply wood labour charge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">utam point(MARCH</t>
   </si>
   <si>
     <t xml:space="preserve">Majid acount </t>
   </si>
   <si>
-    <t>Nasib for march</t>
-  </si>
-  <si>
-    <t>Mudir khan</t>
-  </si>
-  <si>
-    <t>Office expence</t>
-  </si>
-  <si>
-    <t>watch man cleanng/april</t>
+    <t xml:space="preserve">Nasib for march</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mudir khan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Office expence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">watch man cleanng/april</t>
   </si>
   <si>
     <t xml:space="preserve">Rent irani </t>
   </si>
   <si>
-    <t>salary/april</t>
-  </si>
-  <si>
-    <t>Refreshment</t>
-  </si>
-  <si>
-    <t>kabeer sir bil</t>
-  </si>
-  <si>
-    <t>navid labour suply</t>
-  </si>
-  <si>
-    <t>al sana/march</t>
+    <t xml:space="preserve">salary/april</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refreshment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kabeer sir bil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">navid labour suply</t>
+  </si>
+  <si>
+    <t xml:space="preserve">al sana/march</t>
   </si>
   <si>
     <t xml:space="preserve">3 BLZR </t>
   </si>
   <si>
-    <t>Usman bill</t>
-  </si>
-  <si>
-    <t>Aness bill</t>
-  </si>
-  <si>
-    <t>Teraco</t>
-  </si>
-  <si>
-    <t>nasib adv /transport</t>
-  </si>
-  <si>
-    <t>Waqar salary</t>
-  </si>
-  <si>
-    <t>Waqar over time</t>
+    <t xml:space="preserve">Usman bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aness bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teraco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nasib adv /transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waqar salary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waqar over time</t>
   </si>
   <si>
     <t xml:space="preserve">passing waqar </t>
   </si>
   <si>
-    <t>Javed account</t>
+    <t xml:space="preserve">Javed account</t>
   </si>
   <si>
     <t xml:space="preserve">Material </t>
@@ -360,145 +366,145 @@
     <t xml:space="preserve"> usman bill</t>
   </si>
   <si>
-    <t>rent for room may</t>
-  </si>
-  <si>
-    <t>Misciliniuos exp</t>
-  </si>
-  <si>
-    <t>fridge</t>
+    <t xml:space="preserve">rent for room may</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Misciliniuos exp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fridge</t>
   </si>
   <si>
     <t xml:space="preserve">KABIR </t>
   </si>
   <si>
-    <t>Javed account(massom+rizwan)</t>
-  </si>
-  <si>
-    <t>Javed account/grp</t>
-  </si>
-  <si>
-    <t>Javed account/passing</t>
-  </si>
-  <si>
-    <t>Materials</t>
-  </si>
-  <si>
-    <t>ismail(javed acnt)</t>
-  </si>
-  <si>
-    <t>I D Typing/utam</t>
-  </si>
-  <si>
-    <t>Materail</t>
-  </si>
-  <si>
-    <t>light fix(watchman)</t>
-  </si>
-  <si>
-    <t>labour safety item</t>
-  </si>
-  <si>
-    <t>javed account</t>
-  </si>
-  <si>
-    <t>cash taken from malor</t>
-  </si>
-  <si>
-    <t>visa adv payment received</t>
+    <t xml:space="preserve">Javed account(massom+rizwan)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Javed account/grp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Javed account/passing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Materials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ismail(javed acnt)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I D Typing/utam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Materail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">light fix(watchman)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">labour safety item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">javed account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cash taken from malor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">visa adv payment received</t>
   </si>
   <si>
     <t xml:space="preserve">Rak bankloan deposit </t>
   </si>
   <si>
-    <t>labour rent payment</t>
-  </si>
-  <si>
-    <t>Materials GRP(Nasib)</t>
-  </si>
-  <si>
-    <t>Navid Sub con</t>
-  </si>
-  <si>
-    <t>shane sub contracter</t>
-  </si>
-  <si>
-    <t>usman salary</t>
-  </si>
-  <si>
-    <t>Anees salary</t>
-  </si>
-  <si>
-    <t>utam roy</t>
-  </si>
-  <si>
-    <t>Majid for GRP</t>
-  </si>
-  <si>
-    <t>Saaqab salary</t>
-  </si>
-  <si>
-    <t>petty cash lost</t>
-  </si>
-  <si>
-    <t>anees bill</t>
-  </si>
-  <si>
-    <t>Ganga salary/adv</t>
-  </si>
-  <si>
-    <t>uttam</t>
-  </si>
-  <si>
-    <t>Masum return amount</t>
-  </si>
-  <si>
-    <t>USMAN ADV</t>
-  </si>
-  <si>
-    <t>navid sub contracter</t>
-  </si>
-  <si>
-    <t>Nasib</t>
-  </si>
-  <si>
-    <t>Anees adv</t>
-  </si>
-  <si>
-    <t>javed paid</t>
-  </si>
-  <si>
-    <t>Javed account APRIL</t>
-  </si>
-  <si>
-    <t>material for store</t>
-  </si>
-  <si>
-    <t>cash received</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>BANK DEPOSIT</t>
-  </si>
-  <si>
-    <t>KABIR BILL</t>
-  </si>
-  <si>
-    <t>UNIS KHAN feb bill</t>
-  </si>
-  <si>
-    <t>awazel material</t>
-  </si>
-  <si>
-    <t>HP TONER/OFFICE</t>
-  </si>
-  <si>
-    <t>PETTY CASH</t>
-  </si>
-  <si>
-    <t>JAVED ACCOUNT</t>
+    <t xml:space="preserve">labour rent payment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Materials GRP(Nasib)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navid Sub con</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shane sub contracter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">usman salary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anees salary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">utam roy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Majid for GRP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saaqab salary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">petty cash lost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anees bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ganga salary/adv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uttam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masum return amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USMAN ADV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">navid sub contracter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nasib</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anees adv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">javed paid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Javed account APRIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">material for store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cash received</t>
+  </si>
+  <si>
+    <t xml:space="preserve">water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BANK DEPOSIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KABIR BILL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIS KHAN feb bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">awazel material</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP TONER/OFFICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PETTY CASH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAVED ACCOUNT</t>
   </si>
   <si>
     <t xml:space="preserve">DATE </t>
@@ -510,133 +516,145 @@
     <t xml:space="preserve">CASH RECEIVED </t>
   </si>
   <si>
-    <t>CASH PAID</t>
-  </si>
-  <si>
-    <t>BALANCE</t>
+    <t xml:space="preserve">CASH PAID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BALANCE</t>
   </si>
   <si>
     <t xml:space="preserve">Cash deposit </t>
   </si>
   <si>
-    <t>Room rent(saraki</t>
-  </si>
-  <si>
-    <t>Cash deposit /kabir</t>
-  </si>
-  <si>
-    <t>Cash deposit /utam</t>
-  </si>
-  <si>
-    <t>bill received</t>
-  </si>
-  <si>
-    <t>cash deposit/lbr salary</t>
-  </si>
-  <si>
-    <t>cash deposit</t>
-  </si>
-  <si>
-    <t>cash deposit/by ismail</t>
-  </si>
-  <si>
-    <t>cash deposit/majid</t>
-  </si>
-  <si>
-    <t>cash deposit/room rent</t>
-  </si>
-  <si>
-    <t>cash paid /usman</t>
-  </si>
-  <si>
-    <t>cash paid usman</t>
-  </si>
-  <si>
-    <t>cash paid /gulam</t>
-  </si>
-  <si>
-    <t>cash paid /wakar</t>
+    <t xml:space="preserve">Room rent(saraki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash deposit /kabir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash deposit /utam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bill received</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cash deposit/lbr salary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cash deposit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cash deposit/by ismail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cash deposit/majid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cash deposit/room rent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cash paid /usman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cash paid usman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cash paid /gulam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cash paid /wakar</t>
   </si>
   <si>
     <t xml:space="preserve">cash paid </t>
   </si>
   <si>
-    <t>cash paid</t>
-  </si>
-  <si>
-    <t>cash paid/ROOM RENT</t>
+    <t xml:space="preserve">cash paid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cash paid/ROOM RENT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$د.إ.‏-3801]\ #,##0.00_-"/>
+  <numFmts count="5">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0.00"/>
+    <numFmt numFmtId="166" formatCode="[$د.إ.‏-3801]\ #,##0.00_-"/>
+    <numFmt numFmtId="167" formatCode="MM/DD/YYYY"/>
+    <numFmt numFmtId="168" formatCode="0%"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="22"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="16"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="20"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
-      <u/>
+      <u val="single"/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="18"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="14"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -648,380 +666,229 @@
     </fill>
   </fills>
   <borders count="2">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="18">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF1F497D"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A2:G107"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H109" activeCellId="0" sqref="H109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.53"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="28.5">
+    <row r="2" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1029,2078 +896,2427 @@
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="21">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5" t="s">
+    <row r="4" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" ht="21">
-      <c r="A5" s="8">
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="n">
         <v>42856</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="2" t="n">
         <v>400</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="2">
-        <f>C5-D5</f>
+      <c r="D5" s="8"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="2" t="n">
+        <f aca="false">C5-E5</f>
         <v>400</v>
       </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="8">
+      <c r="G5" s="1" t="n">
+        <f aca="false">C5-E5</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="n">
         <v>42856</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="2" t="n">
         <v>4000</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="2" t="n">
         <v>3000</v>
       </c>
-      <c r="F6" s="2">
-        <f>C5+C6-E6</f>
+      <c r="F6" s="2" t="n">
+        <f aca="false">F5+C6-E6</f>
         <v>1400</v>
       </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="8">
+      <c r="G6" s="1" t="n">
+        <f aca="false">G5+C6-E6</f>
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="n">
         <v>42856</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="2" t="n">
         <v>60000</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="2" t="n">
         <v>644</v>
       </c>
-      <c r="F7" s="2">
-        <f t="shared" ref="F7:F70" si="0">C6+C7-E7</f>
-        <v>63356</v>
-      </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="8">
+      <c r="F7" s="2" t="n">
+        <f aca="false">C7-E7</f>
+        <v>59356</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <f aca="false">G6+C7-E7</f>
+        <v>60756</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="n">
         <v>42856</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="2" t="n">
         <v>30000</v>
       </c>
-      <c r="F8" s="2">
-        <f t="shared" si="0"/>
+      <c r="F8" s="2" t="n">
+        <f aca="false">C7+C8-E8</f>
         <v>30000</v>
       </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="8">
+      <c r="G8" s="1" t="n">
+        <f aca="false">G7+C8-E8</f>
+        <v>30756</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9" t="n">
         <v>42856</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="2" t="n">
         <v>1520</v>
       </c>
-      <c r="F9" s="2">
-        <f t="shared" si="0"/>
+      <c r="F9" s="2" t="n">
+        <f aca="false">C8+C9-E9</f>
         <v>-1520</v>
       </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="8">
+      <c r="G9" s="1" t="n">
+        <f aca="false">G8+C9-E9</f>
+        <v>29236</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="n">
         <v>42856</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="2" t="n">
         <v>10000</v>
       </c>
-      <c r="F10" s="2">
-        <f t="shared" si="0"/>
+      <c r="F10" s="2" t="n">
+        <f aca="false">C9+C10-E10</f>
         <v>-10000</v>
       </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="8">
+      <c r="G10" s="1" t="n">
+        <f aca="false">G9+C10-E10</f>
+        <v>19236</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9" t="n">
         <v>42856</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="2" t="n">
         <v>30000</v>
       </c>
-      <c r="F11" s="2">
-        <f t="shared" si="0"/>
+      <c r="F11" s="2" t="n">
+        <f aca="false">C10+C11-E11</f>
         <v>-30000</v>
       </c>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="8">
+      <c r="G11" s="1" t="n">
+        <f aca="false">G10+C11-E11</f>
+        <v>-10764</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9" t="n">
         <v>42857</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="10" t="n">
         <v>9000</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="2" t="n">
         <v>15480</v>
       </c>
-      <c r="F12" s="2">
-        <f t="shared" si="0"/>
+      <c r="F12" s="2" t="n">
+        <f aca="false">C11+C12-E12</f>
         <v>-6480</v>
       </c>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="8">
+      <c r="G12" s="1" t="n">
+        <f aca="false">G11+C12-E12</f>
+        <v>-17244</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="9" t="n">
         <v>42857</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="2" t="n">
         <v>10000</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="2" t="n">
         <v>9000</v>
       </c>
-      <c r="F13" s="2">
-        <f t="shared" si="0"/>
+      <c r="F13" s="2" t="n">
+        <f aca="false">C12+C13-E13</f>
         <v>10000</v>
       </c>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="8">
+      <c r="G13" s="1" t="n">
+        <f aca="false">G12+C13-E13</f>
+        <v>-16244</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="9" t="n">
         <v>42857</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="2" t="n">
         <v>5000</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="2" t="n">
         <v>6000</v>
       </c>
-      <c r="F14" s="2">
-        <f t="shared" si="0"/>
+      <c r="F14" s="2" t="n">
+        <f aca="false">C13+C14-E14</f>
         <v>9000</v>
       </c>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="8">
+      <c r="G14" s="1" t="n">
+        <f aca="false">G13+C14-E14</f>
+        <v>-17244</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="9" t="n">
         <v>42857</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="2" t="n">
         <v>2000</v>
       </c>
-      <c r="F15" s="2">
-        <f t="shared" si="0"/>
+      <c r="F15" s="2" t="n">
+        <f aca="false">C14+C15-E15</f>
         <v>3000</v>
       </c>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="8">
+      <c r="G15" s="1" t="n">
+        <f aca="false">G14+C15-E15</f>
+        <v>-19244</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="9" t="n">
         <v>42857</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="2" t="n">
         <v>1100</v>
       </c>
-      <c r="F16" s="2">
-        <f t="shared" si="0"/>
+      <c r="F16" s="2" t="n">
+        <f aca="false">C15+C16-E16</f>
         <v>-1100</v>
       </c>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="8">
+      <c r="G16" s="1" t="n">
+        <f aca="false">G15+C16-E16</f>
+        <v>-20344</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="9" t="n">
         <v>42858</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="2" t="n">
         <v>5000</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="2" t="n">
         <v>4500</v>
       </c>
-      <c r="F17" s="2">
-        <f t="shared" si="0"/>
+      <c r="F17" s="2" t="n">
+        <f aca="false">C16+C17-E17</f>
         <v>500</v>
       </c>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="8">
+      <c r="G17" s="1" t="n">
+        <f aca="false">G16+C17-E17</f>
+        <v>-19844</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="9" t="n">
         <v>42859</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="2" t="n">
         <v>16100</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="2" t="n">
         <v>5000</v>
       </c>
-      <c r="F18" s="2">
-        <f t="shared" si="0"/>
+      <c r="F18" s="2" t="n">
+        <f aca="false">C17+C18-E18</f>
         <v>16100</v>
       </c>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="8">
+      <c r="G18" s="1" t="n">
+        <f aca="false">G17+C18-E18</f>
+        <v>-8744</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="9" t="n">
         <v>42859</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="2" t="n">
         <v>14500</v>
       </c>
-      <c r="F19" s="2">
-        <f t="shared" si="0"/>
+      <c r="F19" s="2" t="n">
+        <f aca="false">C18+C19-E19</f>
         <v>1600</v>
       </c>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="8">
+      <c r="G19" s="1" t="n">
+        <f aca="false">G18+C19-E19</f>
+        <v>-23244</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="9" t="n">
         <v>42861</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="2" t="n">
         <v>20000</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="2" t="n">
         <v>2000</v>
       </c>
-      <c r="F20" s="2">
-        <f t="shared" si="0"/>
+      <c r="F20" s="2" t="n">
+        <f aca="false">C19+C20-E20</f>
         <v>18000</v>
       </c>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="8">
+      <c r="G20" s="1" t="n">
+        <f aca="false">G19+C20-E20</f>
+        <v>-5244</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="9" t="n">
         <v>42861</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="2" t="n">
         <v>13400</v>
       </c>
-      <c r="F21" s="2">
-        <f t="shared" si="0"/>
+      <c r="F21" s="2" t="n">
+        <f aca="false">C20+C21-E21</f>
         <v>6600</v>
       </c>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="8">
+      <c r="G21" s="1" t="n">
+        <f aca="false">G20+C21-E21</f>
+        <v>-18644</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="9" t="n">
         <v>42861</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="2" t="n">
         <v>2500</v>
       </c>
-      <c r="F22" s="2">
-        <f t="shared" si="0"/>
+      <c r="F22" s="2" t="n">
+        <f aca="false">C21+C22-E22</f>
         <v>-2500</v>
       </c>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="8">
+      <c r="G22" s="1" t="n">
+        <f aca="false">G21+C22-E22</f>
+        <v>-21144</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="9" t="n">
         <v>42861</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="2" t="n">
         <v>16000</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="2" t="n">
         <v>1780</v>
       </c>
-      <c r="F23" s="2">
-        <f t="shared" si="0"/>
+      <c r="F23" s="2" t="n">
+        <f aca="false">C22+C23-E23</f>
         <v>14220</v>
       </c>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="8">
+      <c r="G23" s="1" t="n">
+        <f aca="false">G22+C23-E23</f>
+        <v>-6924</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="9" t="n">
         <v>42862</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="2" t="n">
         <v>14000</v>
       </c>
-      <c r="F24" s="2">
-        <f t="shared" si="0"/>
+      <c r="F24" s="2" t="n">
+        <f aca="false">C23+C24-E24</f>
         <v>2000</v>
       </c>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="8">
+      <c r="G24" s="1" t="n">
+        <f aca="false">G23+C24-E24</f>
+        <v>-20924</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="9" t="n">
         <v>42862</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="2" t="n">
         <v>7500</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="2" t="n">
         <v>2000</v>
       </c>
-      <c r="F25" s="2">
-        <f t="shared" si="0"/>
+      <c r="F25" s="2" t="n">
+        <f aca="false">C24+C25-E25</f>
         <v>5500</v>
       </c>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="8">
+      <c r="G25" s="1" t="n">
+        <f aca="false">G24+C25-E25</f>
+        <v>-15424</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="9" t="n">
         <v>42863</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="2" t="n">
         <v>9000</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="2" t="n">
         <v>7500</v>
       </c>
-      <c r="F26" s="2">
-        <f t="shared" si="0"/>
+      <c r="F26" s="2" t="n">
+        <f aca="false">C25+C26-E26</f>
         <v>9000</v>
       </c>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="8">
+      <c r="G26" s="1" t="n">
+        <f aca="false">G25+C26-E26</f>
+        <v>-13924</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="9" t="n">
         <v>42864</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="2" t="n">
         <v>18500</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="2" t="n">
         <v>9000</v>
       </c>
-      <c r="F27" s="2">
-        <f t="shared" si="0"/>
+      <c r="F27" s="2" t="n">
+        <f aca="false">C26+C27-E27</f>
         <v>18500</v>
       </c>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="8">
+      <c r="G27" s="1" t="n">
+        <f aca="false">G26+C27-E27</f>
+        <v>-4424</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="9" t="n">
         <v>42864</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="2" t="n">
         <v>5000</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="2" t="n">
         <v>10000</v>
       </c>
-      <c r="F28" s="2">
-        <f t="shared" si="0"/>
+      <c r="F28" s="2" t="n">
+        <f aca="false">C27+C28-E28</f>
         <v>13500</v>
       </c>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="8">
+      <c r="G28" s="1" t="n">
+        <f aca="false">G27+C28-E28</f>
+        <v>-9424</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="9" t="n">
         <v>42864</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="2" t="n">
         <v>1500</v>
       </c>
-      <c r="F29" s="2">
-        <f t="shared" si="0"/>
+      <c r="F29" s="2" t="n">
+        <f aca="false">C28+C29-E29</f>
         <v>3500</v>
       </c>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="8">
+      <c r="G29" s="1" t="n">
+        <f aca="false">G28+C29-E29</f>
+        <v>-10924</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="9" t="n">
         <v>42864</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="2" t="n">
         <v>6200</v>
       </c>
-      <c r="F30" s="2">
-        <f t="shared" si="0"/>
+      <c r="F30" s="2" t="n">
+        <f aca="false">C29+C30-E30</f>
         <v>-6200</v>
       </c>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="8">
+      <c r="G30" s="1" t="n">
+        <f aca="false">G29+C30-E30</f>
+        <v>-17124</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="9" t="n">
         <v>42864</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="2" t="n">
         <v>3500</v>
       </c>
-      <c r="F31" s="2">
-        <f t="shared" si="0"/>
+      <c r="F31" s="2" t="n">
+        <f aca="false">C30+C31-E31</f>
         <v>-3500</v>
       </c>
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="8">
+      <c r="G31" s="1" t="n">
+        <f aca="false">G30+C31-E31</f>
+        <v>-20624</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="9" t="n">
         <v>42866</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="2" t="n">
         <v>16000</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="2" t="n">
         <v>2300</v>
       </c>
-      <c r="F32" s="2">
-        <f t="shared" si="0"/>
+      <c r="F32" s="2" t="n">
+        <f aca="false">C31+C32-E32</f>
         <v>13700</v>
       </c>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="8">
+      <c r="G32" s="1" t="n">
+        <f aca="false">G31+C32-E32</f>
+        <v>-6924</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="9" t="n">
         <v>42866</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="2" t="n">
         <v>9500</v>
       </c>
-      <c r="F33" s="2">
-        <f t="shared" si="0"/>
+      <c r="F33" s="2" t="n">
+        <f aca="false">C32+C33-E33</f>
         <v>6500</v>
       </c>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="8">
+      <c r="G33" s="1" t="n">
+        <f aca="false">G32+C33-E33</f>
+        <v>-16424</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="9" t="n">
         <v>42861</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="2" t="n">
         <v>5500</v>
       </c>
-      <c r="F34" s="2">
-        <f t="shared" si="0"/>
+      <c r="F34" s="2" t="n">
+        <f aca="false">C33+C34-E34</f>
         <v>-5500</v>
       </c>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="8">
+      <c r="G34" s="1" t="n">
+        <f aca="false">G33+C34-E34</f>
+        <v>-21924</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="9" t="n">
         <v>42868</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="2" t="n">
         <v>2000</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="2" t="n">
         <v>2820</v>
       </c>
-      <c r="F35" s="2">
-        <f t="shared" si="0"/>
+      <c r="F35" s="2" t="n">
+        <f aca="false">C34+C35-E35</f>
         <v>-820</v>
       </c>
-      <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="8">
+      <c r="G35" s="1" t="n">
+        <f aca="false">G34+C35-E35</f>
+        <v>-22744</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="9" t="n">
         <v>42869</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="2" t="n">
         <v>3000</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="2" t="n">
         <v>2000</v>
       </c>
-      <c r="F36" s="2">
-        <f t="shared" si="0"/>
+      <c r="F36" s="2" t="n">
+        <f aca="false">C35+C36-E36</f>
         <v>3000</v>
       </c>
-      <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="8">
+      <c r="G36" s="1" t="n">
+        <f aca="false">G35+C36-E36</f>
+        <v>-21744</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="9" t="n">
         <v>42870</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="2" t="n">
         <v>5000</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="2" t="n">
         <v>3000</v>
       </c>
-      <c r="F37" s="2">
-        <f t="shared" si="0"/>
+      <c r="F37" s="2" t="n">
+        <f aca="false">C36+C37-E37</f>
         <v>5000</v>
       </c>
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="8">
+      <c r="G37" s="1" t="n">
+        <f aca="false">G36+C37-E37</f>
+        <v>-19744</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="9" t="n">
         <v>42870</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="2" t="n">
         <v>800</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="2" t="n">
         <v>5800</v>
       </c>
-      <c r="F38" s="2">
-        <f t="shared" si="0"/>
+      <c r="F38" s="2" t="n">
+        <f aca="false">C37+C38-E38</f>
         <v>0</v>
       </c>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="8">
+      <c r="G38" s="1" t="n">
+        <f aca="false">G37+C38-E38</f>
+        <v>-24744</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="9" t="n">
         <v>42871</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="2" t="n">
         <v>2000</v>
       </c>
-      <c r="D39" s="3"/>
+      <c r="D39" s="4"/>
       <c r="E39" s="2"/>
-      <c r="F39" s="2">
-        <f t="shared" si="0"/>
+      <c r="F39" s="2" t="n">
+        <f aca="false">C38+C39-E39</f>
         <v>2800</v>
       </c>
-      <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="8">
+      <c r="G39" s="1" t="n">
+        <f aca="false">G38+C39-E39</f>
+        <v>-22744</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="9" t="n">
         <v>42871</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="2" t="n">
         <v>8000</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="2" t="n">
         <v>2000</v>
       </c>
-      <c r="F40" s="2">
-        <f t="shared" si="0"/>
+      <c r="F40" s="2" t="n">
+        <f aca="false">C39+C40-E40</f>
         <v>8000</v>
       </c>
-      <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="8">
+      <c r="G40" s="1" t="n">
+        <f aca="false">G39+C40-E40</f>
+        <v>-16744</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="9" t="n">
         <v>42871</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="2" t="n">
         <v>6000</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="2" t="n">
         <v>6000</v>
       </c>
-      <c r="F41" s="2">
-        <f t="shared" si="0"/>
+      <c r="F41" s="2" t="n">
+        <f aca="false">C40+C41-E41</f>
         <v>8000</v>
       </c>
-      <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="8">
+      <c r="G41" s="1" t="n">
+        <f aca="false">G40+C41-E41</f>
+        <v>-16744</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="9" t="n">
         <v>42872</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="2"/>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="2" t="n">
         <v>2000</v>
       </c>
-      <c r="F42" s="2">
-        <f t="shared" si="0"/>
+      <c r="F42" s="2" t="n">
+        <f aca="false">C41+C42-E42</f>
         <v>4000</v>
       </c>
-      <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="8">
+      <c r="G42" s="1" t="n">
+        <f aca="false">G41+C42-E42</f>
+        <v>-18744</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="9" t="n">
         <v>42872</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="2" t="n">
         <v>26750</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="2" t="n">
         <v>5000</v>
       </c>
-      <c r="F43" s="2">
-        <f t="shared" si="0"/>
+      <c r="F43" s="2" t="n">
+        <f aca="false">C42+C43-E43</f>
         <v>21750</v>
       </c>
-      <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="8">
+      <c r="G43" s="1" t="n">
+        <f aca="false">G42+C43-E43</f>
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="9" t="n">
         <v>42872</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="2" t="n">
         <v>12080</v>
       </c>
-      <c r="D44" s="3"/>
+      <c r="D44" s="4"/>
       <c r="E44" s="2"/>
-      <c r="F44" s="2">
-        <f t="shared" si="0"/>
+      <c r="F44" s="2" t="n">
+        <f aca="false">C43+C44-E44</f>
         <v>38830</v>
       </c>
-      <c r="G44" s="1"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="8">
+      <c r="G44" s="1" t="n">
+        <f aca="false">G43+C44-E44</f>
+        <v>15086</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="9" t="n">
         <v>42874</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="2" t="n">
         <v>1500</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="2" t="n">
         <v>38830</v>
       </c>
-      <c r="F45" s="2">
-        <f t="shared" si="0"/>
+      <c r="F45" s="2" t="n">
+        <f aca="false">C44+C45-E45</f>
         <v>-25250</v>
       </c>
-      <c r="G45" s="1"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="8">
+      <c r="G45" s="1" t="n">
+        <f aca="false">G44+C45-E45</f>
+        <v>-22244</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="9" t="n">
         <v>42875</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="2" t="n">
         <v>12000</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="2" t="n">
         <v>1500</v>
       </c>
-      <c r="F46" s="2">
-        <f t="shared" si="0"/>
+      <c r="F46" s="2" t="n">
+        <f aca="false">C45+C46-E46</f>
         <v>12000</v>
       </c>
-      <c r="G46" s="1"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="8">
+      <c r="G46" s="1" t="n">
+        <f aca="false">G45+C46-E46</f>
+        <v>-11744</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="9" t="n">
         <v>42875</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="2" t="n">
         <v>1000</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="2" t="n">
         <v>12000</v>
       </c>
-      <c r="F47" s="2">
-        <f t="shared" si="0"/>
+      <c r="F47" s="2" t="n">
+        <f aca="false">C46+C47-E47</f>
         <v>1000</v>
       </c>
-      <c r="G47" s="1"/>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="8">
+      <c r="G47" s="1" t="n">
+        <f aca="false">G46+C47-E47</f>
+        <v>-22744</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="9" t="n">
         <v>42876</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="2"/>
-      <c r="D48" s="3"/>
+      <c r="D48" s="4"/>
       <c r="E48" s="2"/>
-      <c r="F48" s="2">
-        <f t="shared" si="0"/>
+      <c r="F48" s="2" t="n">
+        <f aca="false">C47+C48-E48</f>
         <v>1000</v>
       </c>
-      <c r="G48" s="1"/>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="8">
+      <c r="G48" s="1" t="n">
+        <f aca="false">G47+C48-E48</f>
+        <v>-22744</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="9" t="n">
         <v>42876</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="2"/>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="2" t="n">
         <v>1500</v>
       </c>
-      <c r="F49" s="2">
-        <f t="shared" si="0"/>
+      <c r="F49" s="2" t="n">
+        <f aca="false">C48+C49-E49</f>
         <v>-1500</v>
       </c>
-      <c r="G49" s="1"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="8">
+      <c r="G49" s="1" t="n">
+        <f aca="false">G48+C49-E49</f>
+        <v>-24244</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="9" t="n">
         <v>42876</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="2"/>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="2" t="n">
         <v>500</v>
       </c>
-      <c r="F50" s="2">
-        <f t="shared" si="0"/>
+      <c r="F50" s="2" t="n">
+        <f aca="false">C49+C50-E50</f>
         <v>-500</v>
       </c>
-      <c r="G50" s="1"/>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="8">
+      <c r="G50" s="1" t="n">
+        <f aca="false">G49+C50-E50</f>
+        <v>-24744</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="9" t="n">
         <v>42877</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="2" t="n">
         <v>8900</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="2" t="n">
         <v>500</v>
       </c>
-      <c r="F51" s="2">
-        <f t="shared" si="0"/>
+      <c r="F51" s="2" t="n">
+        <f aca="false">C50+C51-E51</f>
         <v>8400</v>
       </c>
-      <c r="G51" s="1"/>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="8">
+      <c r="G51" s="1" t="n">
+        <f aca="false">G50+C51-E51</f>
+        <v>-16344</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="9" t="n">
         <v>42877</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="2"/>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="2" t="n">
         <v>8400</v>
       </c>
-      <c r="F52" s="2">
-        <f t="shared" si="0"/>
+      <c r="F52" s="2" t="n">
+        <f aca="false">C51+C52-E52</f>
         <v>500</v>
       </c>
-      <c r="G52" s="1"/>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="8">
+      <c r="G52" s="1" t="n">
+        <f aca="false">G51+C52-E52</f>
+        <v>-24744</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="9" t="n">
         <v>42878</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="2" t="n">
         <v>2000</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="2" t="n">
         <v>500</v>
       </c>
-      <c r="F53" s="2">
-        <f t="shared" si="0"/>
+      <c r="F53" s="2" t="n">
+        <f aca="false">C52+C53-E53</f>
         <v>1500</v>
       </c>
-      <c r="G53" s="1"/>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="8">
+      <c r="G53" s="1" t="n">
+        <f aca="false">G52+C53-E53</f>
+        <v>-23244</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="9" t="n">
         <v>42878</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="2"/>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="2" t="n">
         <v>2000</v>
       </c>
-      <c r="F54" s="2">
-        <f t="shared" si="0"/>
+      <c r="F54" s="2" t="n">
+        <f aca="false">C53+C54-E54</f>
         <v>0</v>
       </c>
-      <c r="G54" s="1"/>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="8">
+      <c r="G54" s="1" t="n">
+        <f aca="false">G53+C54-E54</f>
+        <v>-25244</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="9" t="n">
         <v>42878</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="3"/>
+      <c r="D55" s="4"/>
       <c r="E55" s="2"/>
-      <c r="F55" s="2">
-        <f t="shared" si="0"/>
+      <c r="F55" s="2" t="n">
+        <f aca="false">C54+C55-E55</f>
         <v>0</v>
       </c>
-      <c r="G55" s="1"/>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="8">
+      <c r="G55" s="1" t="n">
+        <f aca="false">G54+C55-E55</f>
+        <v>-25244</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="9" t="n">
         <v>42879</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56" s="2" t="n">
         <v>1000</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D56" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56" s="2" t="n">
         <v>1000</v>
       </c>
-      <c r="F56" s="2">
-        <f t="shared" si="0"/>
+      <c r="F56" s="2" t="n">
+        <f aca="false">C55+C56-E56</f>
         <v>0</v>
       </c>
-      <c r="G56" s="1"/>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="8">
+      <c r="G56" s="1" t="n">
+        <f aca="false">G55+C56-E56</f>
+        <v>-25244</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="9" t="n">
         <v>42879</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="2" t="n">
         <v>15000</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="2" t="n">
         <v>15000</v>
       </c>
-      <c r="F57" s="2">
-        <f t="shared" si="0"/>
+      <c r="F57" s="2" t="n">
+        <f aca="false">C56+C57-E57</f>
         <v>1000</v>
       </c>
-      <c r="G57" s="1"/>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="8">
+      <c r="G57" s="1" t="n">
+        <f aca="false">G56+C57-E57</f>
+        <v>-25244</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="9" t="n">
         <v>42880</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C58" s="2" t="n">
         <v>20000</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58" s="2" t="n">
         <v>13000</v>
       </c>
-      <c r="F58" s="2">
-        <f t="shared" si="0"/>
+      <c r="F58" s="2" t="n">
+        <f aca="false">C57+C58-E58</f>
         <v>22000</v>
       </c>
-      <c r="G58" s="1"/>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="8">
+      <c r="G58" s="1" t="n">
+        <f aca="false">G57+C58-E58</f>
+        <v>-18244</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="9" t="n">
         <v>42880</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="2"/>
-      <c r="D59" s="3" t="s">
+      <c r="D59" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59" s="2" t="n">
         <v>7000</v>
       </c>
-      <c r="F59" s="2">
-        <f t="shared" si="0"/>
+      <c r="F59" s="2" t="n">
+        <f aca="false">C58+C59-E59</f>
         <v>13000</v>
       </c>
-      <c r="G59" s="1"/>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="8">
+      <c r="G59" s="1" t="n">
+        <f aca="false">G58+C59-E59</f>
+        <v>-25244</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="9" t="n">
         <v>42881</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C60" s="2" t="n">
         <v>2000</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D60" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E60" s="2" t="n">
         <v>1000</v>
       </c>
-      <c r="F60" s="2">
-        <f t="shared" si="0"/>
+      <c r="F60" s="2" t="n">
+        <f aca="false">C59+C60-E60</f>
         <v>1000</v>
       </c>
-      <c r="G60" s="1"/>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="8">
+      <c r="G60" s="1" t="n">
+        <f aca="false">G59+C60-E60</f>
+        <v>-24244</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="9" t="n">
         <v>42882</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61" s="2" t="n">
         <v>5300</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D61" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E61" s="2" t="n">
         <v>3800</v>
       </c>
-      <c r="F61" s="2">
-        <f t="shared" si="0"/>
+      <c r="F61" s="2" t="n">
+        <f aca="false">C60+C61-E61</f>
         <v>3500</v>
       </c>
-      <c r="G61" s="1"/>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="G61" s="1" t="n">
+        <f aca="false">G60+C61-E61</f>
+        <v>-22744</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="2"/>
-      <c r="D62" s="3" t="s">
+      <c r="D62" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E62" s="2" t="n">
         <v>1500</v>
       </c>
-      <c r="F62" s="2">
-        <f t="shared" si="0"/>
+      <c r="F62" s="2" t="n">
+        <f aca="false">C61+C62-E62</f>
         <v>3800</v>
       </c>
-      <c r="G62" s="1"/>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="G62" s="1" t="n">
+        <f aca="false">G61+C62-E62</f>
+        <v>-24244</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="2"/>
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E63" s="2" t="n">
         <v>244</v>
       </c>
-      <c r="F63" s="2">
-        <f t="shared" si="0"/>
+      <c r="F63" s="2" t="n">
+        <f aca="false">C62+C63-E63</f>
         <v>-244</v>
       </c>
-      <c r="G63" s="1"/>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="8">
+      <c r="G63" s="1" t="n">
+        <f aca="false">G62+C63-E63</f>
+        <v>-24488</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="9" t="n">
         <v>42883</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C64" s="2" t="n">
         <v>10000</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D64" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E64" s="2">
+      <c r="E64" s="2" t="n">
         <v>9000</v>
       </c>
-      <c r="F64" s="2">
-        <f t="shared" si="0"/>
+      <c r="F64" s="2" t="n">
+        <f aca="false">C63+C64-E64</f>
         <v>1000</v>
       </c>
-      <c r="G64" s="1"/>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="8">
+      <c r="G64" s="1" t="n">
+        <f aca="false">G63+C64-E64</f>
+        <v>-23488</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="9" t="n">
         <v>42883</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C65" s="2" t="n">
         <v>10000</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D65" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E65" s="2" t="n">
         <v>1000</v>
       </c>
-      <c r="F65" s="2">
-        <f t="shared" si="0"/>
+      <c r="F65" s="2" t="n">
+        <f aca="false">C64+C65-E65</f>
         <v>19000</v>
       </c>
-      <c r="G65" s="1"/>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="8">
+      <c r="G65" s="1" t="n">
+        <f aca="false">G64+C65-E65</f>
+        <v>-14488</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="9" t="n">
         <v>42883</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C66" s="2" t="n">
         <v>3500</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D66" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E66" s="2">
+      <c r="E66" s="2" t="n">
         <v>5000</v>
       </c>
-      <c r="F66" s="2">
-        <f t="shared" si="0"/>
+      <c r="F66" s="2" t="n">
+        <f aca="false">C65+C66-E66</f>
         <v>8500</v>
       </c>
-      <c r="G66" s="1"/>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="8">
+      <c r="G66" s="1" t="n">
+        <f aca="false">G65+C66-E66</f>
+        <v>-15988</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="9" t="n">
         <v>42883</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C67" s="2" t="n">
         <v>8000</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D67" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E67" s="2" t="n">
         <v>6500</v>
       </c>
-      <c r="F67" s="2">
-        <f t="shared" si="0"/>
+      <c r="F67" s="2" t="n">
+        <f aca="false">C66+C67-E67</f>
         <v>5000</v>
       </c>
-      <c r="G67" s="1"/>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="8">
+      <c r="G67" s="1" t="n">
+        <f aca="false">G66+C67-E67</f>
+        <v>-14488</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="9" t="n">
         <v>42883</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C68" s="2" t="n">
         <v>5000</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D68" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E68" s="2">
+      <c r="E68" s="2" t="n">
         <v>12700</v>
       </c>
-      <c r="F68" s="2">
-        <f t="shared" si="0"/>
+      <c r="F68" s="2" t="n">
+        <f aca="false">C67+C68-E68</f>
         <v>300</v>
       </c>
-      <c r="G68" s="1"/>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="8">
+      <c r="G68" s="1" t="n">
+        <f aca="false">G67+C68-E68</f>
+        <v>-22188</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="9" t="n">
         <v>42884</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C69" s="2">
+      <c r="C69" s="2" t="n">
         <v>16000</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="D69" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E69" s="2">
+      <c r="E69" s="2" t="n">
         <v>10000</v>
       </c>
-      <c r="F69" s="2">
-        <f t="shared" si="0"/>
+      <c r="F69" s="2" t="n">
+        <f aca="false">C68+C69-E69</f>
         <v>11000</v>
       </c>
-      <c r="G69" s="1"/>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="8">
+      <c r="G69" s="1" t="n">
+        <f aca="false">G68+C69-E69</f>
+        <v>-16188</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="9" t="n">
         <v>42885</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C70" s="2">
+      <c r="C70" s="2" t="n">
         <v>14000</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="D70" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E70" s="2">
+      <c r="E70" s="2" t="n">
         <v>7000</v>
       </c>
-      <c r="F70" s="2">
-        <f t="shared" si="0"/>
+      <c r="F70" s="2" t="n">
+        <f aca="false">C69+C70-E70</f>
         <v>23000</v>
       </c>
-      <c r="G70" s="1"/>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="8">
+      <c r="G70" s="1" t="n">
+        <f aca="false">G69+C70-E70</f>
+        <v>-9188</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="9" t="n">
         <v>42885</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="2"/>
-      <c r="D71" s="3" t="s">
+      <c r="D71" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E71" s="2">
+      <c r="E71" s="2" t="n">
         <v>900</v>
       </c>
-      <c r="F71" s="2">
-        <f t="shared" ref="F71:F107" si="1">C70+C71-E71</f>
+      <c r="F71" s="2" t="n">
+        <f aca="false">C70+C71-E71</f>
         <v>13100</v>
       </c>
-      <c r="G71" s="1"/>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="8">
+      <c r="G71" s="1" t="n">
+        <f aca="false">G70+C71-E71</f>
+        <v>-10088</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="9" t="n">
         <v>42885</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="2"/>
-      <c r="D72" s="3" t="s">
+      <c r="D72" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E72" s="2">
+      <c r="E72" s="2" t="n">
         <v>3000</v>
       </c>
-      <c r="F72" s="2">
-        <f t="shared" si="1"/>
+      <c r="F72" s="2" t="n">
+        <f aca="false">C71+C72-E72</f>
         <v>-3000</v>
       </c>
-      <c r="G72" s="1"/>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="8">
+      <c r="G72" s="1" t="n">
+        <f aca="false">G71+C72-E72</f>
+        <v>-13088</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="9" t="n">
         <v>42885</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="2"/>
-      <c r="D73" s="3" t="s">
+      <c r="D73" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E73" s="2">
+      <c r="E73" s="2" t="n">
         <v>1500</v>
       </c>
-      <c r="F73" s="2">
-        <f t="shared" si="1"/>
+      <c r="F73" s="2" t="n">
+        <f aca="false">C72+C73-E73</f>
         <v>-1500</v>
       </c>
-      <c r="G73" s="1"/>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="8">
+      <c r="G73" s="1" t="n">
+        <f aca="false">G72+C73-E73</f>
+        <v>-14588</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="9" t="n">
         <v>42885</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="2"/>
-      <c r="D74" s="3" t="s">
+      <c r="D74" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E74" s="2">
+      <c r="E74" s="2" t="n">
         <v>7000</v>
       </c>
-      <c r="F74" s="2">
-        <f t="shared" si="1"/>
+      <c r="F74" s="2" t="n">
+        <f aca="false">C73+C74-E74</f>
         <v>-7000</v>
       </c>
-      <c r="G74" s="1"/>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="8">
+      <c r="G74" s="1" t="n">
+        <f aca="false">G73+C74-E74</f>
+        <v>-21588</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="9" t="n">
         <v>42885</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="2"/>
-      <c r="D75" s="3" t="s">
+      <c r="D75" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E75" s="2">
+      <c r="E75" s="2" t="n">
         <v>300</v>
       </c>
-      <c r="F75" s="2">
-        <f t="shared" si="1"/>
+      <c r="F75" s="2" t="n">
+        <f aca="false">C74+C75-E75</f>
         <v>-300</v>
       </c>
-      <c r="G75" s="1"/>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="8">
+      <c r="G75" s="1" t="n">
+        <f aca="false">G74+C75-E75</f>
+        <v>-21888</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="9" t="n">
         <v>42886</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C76" s="2">
+      <c r="C76" s="2" t="n">
         <v>10000</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D76" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E76" s="2">
+      <c r="E76" s="2" t="n">
         <v>8500</v>
       </c>
-      <c r="F76" s="2">
-        <f t="shared" si="1"/>
+      <c r="F76" s="2" t="n">
+        <f aca="false">C75+C76-E76</f>
         <v>1500</v>
       </c>
-      <c r="G76" s="1"/>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="A77" s="8">
+      <c r="G76" s="1" t="n">
+        <f aca="false">G75+C76-E76</f>
+        <v>-20388</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="9" t="n">
         <v>42886</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="2"/>
-      <c r="D77" s="3" t="s">
+      <c r="D77" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E77" s="2">
+      <c r="E77" s="2" t="n">
         <v>1000</v>
       </c>
-      <c r="F77" s="2">
-        <f t="shared" si="1"/>
+      <c r="F77" s="2" t="n">
+        <f aca="false">C76+C77-E77</f>
         <v>9000</v>
       </c>
-      <c r="G77" s="1"/>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="A78" s="8">
+      <c r="G77" s="1" t="n">
+        <f aca="false">G76+C77-E77</f>
+        <v>-21388</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="9" t="n">
         <v>42886</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="2"/>
-      <c r="D78" s="3" t="s">
+      <c r="D78" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E78" s="2">
+      <c r="E78" s="2" t="n">
         <v>500</v>
       </c>
-      <c r="F78" s="2">
-        <f t="shared" si="1"/>
+      <c r="F78" s="2" t="n">
+        <f aca="false">C77+C78-E78</f>
         <v>-500</v>
       </c>
-      <c r="G78" s="1"/>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="C79" s="10"/>
-      <c r="D79" s="11"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="10">
-        <f t="shared" si="1"/>
+      <c r="G78" s="1" t="n">
+        <f aca="false">G77+C78-E78</f>
+        <v>-21888</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C79" s="11"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11" t="n">
+        <f aca="false">C78+C79-E79</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="A80" s="8">
+      <c r="G79" s="1" t="n">
+        <f aca="false">G78+C79-E79</f>
+        <v>-21888</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="9" t="n">
         <v>42889</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C80" s="2">
+      <c r="C80" s="2" t="n">
         <v>500</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="D80" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E80" s="2">
+      <c r="E80" s="2" t="n">
         <v>500</v>
       </c>
-      <c r="F80" s="2">
-        <f t="shared" si="1"/>
+      <c r="F80" s="2" t="n">
+        <f aca="false">C79+C80-E80</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:6">
+      <c r="G80" s="1" t="n">
+        <f aca="false">G79+C80-E80</f>
+        <v>-21888</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1"/>
       <c r="B81" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C81" s="2">
+      <c r="C81" s="2" t="n">
         <v>10000</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D81" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E81" s="2">
+      <c r="E81" s="2" t="n">
         <v>10000</v>
       </c>
-      <c r="F81" s="2">
-        <f t="shared" si="1"/>
+      <c r="F81" s="2" t="n">
+        <f aca="false">C80+C81-E81</f>
         <v>500</v>
       </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="8">
+      <c r="G81" s="1" t="n">
+        <f aca="false">G80+C81-E81</f>
+        <v>-21888</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="9" t="n">
         <v>42892</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C82" s="2">
+      <c r="C82" s="2" t="n">
         <v>2000</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="D82" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E82" s="2">
+      <c r="E82" s="2" t="n">
         <v>1000</v>
       </c>
-      <c r="F82" s="2">
-        <f t="shared" si="1"/>
+      <c r="F82" s="2" t="n">
+        <f aca="false">C81+C82-E82</f>
         <v>11000</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82" s="1" t="n">
+        <f aca="false">G81+C82-E82</f>
+        <v>-20888</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="2"/>
-      <c r="D83" s="3" t="s">
+      <c r="D83" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E83" s="2">
+      <c r="E83" s="2" t="n">
         <v>1000</v>
       </c>
-      <c r="F83" s="2">
-        <f t="shared" si="1"/>
+      <c r="F83" s="2" t="n">
+        <f aca="false">C82+C83-E83</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="8">
+      <c r="G83" s="1" t="n">
+        <f aca="false">G82+C83-E83</f>
+        <v>-21888</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="9" t="n">
         <v>42894</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C84" s="2">
+      <c r="C84" s="2" t="n">
         <v>10000</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="D84" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E84" s="2">
+      <c r="E84" s="2" t="n">
         <v>800</v>
       </c>
-      <c r="F84" s="2">
-        <f t="shared" si="1"/>
+      <c r="F84" s="2" t="n">
+        <f aca="false">C83+C84-E84</f>
         <v>9200</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84" s="1" t="n">
+        <f aca="false">G83+C84-E84</f>
+        <v>-12688</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="2"/>
-      <c r="D85" s="3" t="s">
+      <c r="D85" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E85" s="2">
+      <c r="E85" s="2" t="n">
         <v>9200</v>
       </c>
-      <c r="F85" s="2">
-        <f t="shared" si="1"/>
+      <c r="F85" s="2" t="n">
+        <f aca="false">C84+C85-E85</f>
         <v>800</v>
       </c>
-    </row>
-    <row r="86" spans="1:6">
+      <c r="G85" s="1" t="n">
+        <f aca="false">G84+C85-E85</f>
+        <v>-21888</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="2"/>
-      <c r="D86" s="3"/>
+      <c r="D86" s="4"/>
       <c r="E86" s="2"/>
-      <c r="F86" s="2">
-        <f t="shared" si="1"/>
+      <c r="F86" s="2" t="n">
+        <f aca="false">C85+C86-E86</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87" s="8">
+      <c r="G86" s="1" t="n">
+        <f aca="false">G85+C86-E86</f>
+        <v>-21888</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="9" t="n">
         <v>42895</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C87" s="2">
+      <c r="C87" s="2" t="n">
         <v>3500</v>
       </c>
-      <c r="D87" s="3" t="s">
+      <c r="D87" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E87" s="2">
+      <c r="E87" s="2" t="n">
         <v>3000</v>
       </c>
-      <c r="F87" s="2">
-        <f t="shared" si="1"/>
+      <c r="F87" s="2" t="n">
+        <f aca="false">C86+C87-E87</f>
         <v>500</v>
       </c>
-    </row>
-    <row r="88" spans="1:6">
+      <c r="G87" s="1" t="n">
+        <f aca="false">G86+C87-E87</f>
+        <v>-21388</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="2"/>
-      <c r="D88" s="3" t="s">
+      <c r="D88" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E88" s="2">
+      <c r="E88" s="2" t="n">
         <v>500</v>
       </c>
-      <c r="F88" s="2">
-        <f t="shared" si="1"/>
+      <c r="F88" s="2" t="n">
+        <f aca="false">C87+C88-E88</f>
         <v>3000</v>
       </c>
-    </row>
-    <row r="89" spans="1:6">
+      <c r="G88" s="1" t="n">
+        <f aca="false">G87+C88-E88</f>
+        <v>-21888</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="2"/>
-      <c r="D89" s="3" t="s">
+      <c r="D89" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E89" s="2">
+      <c r="E89" s="2" t="n">
         <v>130</v>
       </c>
-      <c r="F89" s="2">
-        <f t="shared" si="1"/>
+      <c r="F89" s="2" t="n">
+        <f aca="false">C88+C89-E89</f>
         <v>-130</v>
       </c>
-    </row>
-    <row r="90" spans="1:6">
+      <c r="G89" s="1" t="n">
+        <f aca="false">G88+C89-E89</f>
+        <v>-22018</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="2"/>
-      <c r="D90" s="3" t="s">
+      <c r="D90" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E90" s="2">
+      <c r="E90" s="2" t="n">
         <v>3600</v>
       </c>
-      <c r="F90" s="2">
-        <f t="shared" si="1"/>
+      <c r="F90" s="2" t="n">
+        <f aca="false">C89+C90-E90</f>
         <v>-3600</v>
       </c>
-    </row>
-    <row r="91" spans="1:6">
+      <c r="G90" s="1" t="n">
+        <f aca="false">G89+C90-E90</f>
+        <v>-25618</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="2"/>
-      <c r="D91" s="3" t="s">
+      <c r="D91" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E91" s="2">
+      <c r="E91" s="2" t="n">
         <v>500</v>
       </c>
-      <c r="F91" s="2">
-        <f t="shared" si="1"/>
+      <c r="F91" s="2" t="n">
+        <f aca="false">C90+C91-E91</f>
         <v>-500</v>
       </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92" s="8">
+      <c r="G91" s="1" t="n">
+        <f aca="false">G90+C91-E91</f>
+        <v>-26118</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="9" t="n">
         <v>42896</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C92" s="2">
+      <c r="C92" s="2" t="n">
         <v>2500</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="D92" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E92" s="2">
+      <c r="E92" s="2" t="n">
         <v>2000</v>
       </c>
-      <c r="F92" s="2">
-        <f t="shared" si="1"/>
+      <c r="F92" s="2" t="n">
+        <f aca="false">C91+C92-E92</f>
         <v>500</v>
       </c>
-    </row>
-    <row r="93" spans="1:6">
+      <c r="G92" s="1" t="n">
+        <f aca="false">G91+C92-E92</f>
+        <v>-25618</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="2"/>
-      <c r="D93" s="3" t="s">
+      <c r="D93" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E93" s="2">
+      <c r="E93" s="2" t="n">
         <v>500</v>
       </c>
-      <c r="F93" s="2">
-        <f t="shared" si="1"/>
+      <c r="F93" s="2" t="n">
+        <f aca="false">C92+C93-E93</f>
         <v>2000</v>
       </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94" s="8">
+      <c r="G93" s="1" t="n">
+        <f aca="false">G92+C93-E93</f>
+        <v>-26118</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="9" t="n">
         <v>42897</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C94" s="2">
+      <c r="C94" s="2" t="n">
         <v>10200</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D94" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E94" s="2">
+      <c r="E94" s="2" t="n">
         <v>10180</v>
       </c>
-      <c r="F94" s="2">
-        <f t="shared" si="1"/>
+      <c r="F94" s="2" t="n">
+        <f aca="false">C93+C94-E94</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="95" spans="1:6">
+      <c r="G94" s="1" t="n">
+        <f aca="false">G93+C94-E94</f>
+        <v>-26098</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="2"/>
-      <c r="D95" s="3" t="s">
+      <c r="D95" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E95" s="2">
+      <c r="E95" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="F95" s="2">
-        <f t="shared" si="1"/>
+      <c r="F95" s="2" t="n">
+        <f aca="false">C94+C95-E95</f>
         <v>10180</v>
       </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96" s="8">
+      <c r="G95" s="1" t="n">
+        <f aca="false">G94+C95-E95</f>
+        <v>-26118</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="9" t="n">
         <v>42897</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C96" s="2">
+      <c r="C96" s="2" t="n">
         <v>4000</v>
       </c>
-      <c r="D96" s="3" t="s">
+      <c r="D96" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E96" s="2">
+      <c r="E96" s="2" t="n">
         <v>3000</v>
       </c>
-      <c r="F96" s="2">
-        <f t="shared" si="1"/>
+      <c r="F96" s="2" t="n">
+        <f aca="false">C95+C96-E96</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96" s="1" t="n">
+        <f aca="false">G95+C96-E96</f>
+        <v>-25118</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="2"/>
-      <c r="D97" s="3" t="s">
+      <c r="D97" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E97" s="2">
+      <c r="E97" s="2" t="n">
         <v>1000</v>
       </c>
-      <c r="F97" s="2">
-        <f t="shared" si="1"/>
+      <c r="F97" s="2" t="n">
+        <f aca="false">C96+C97-E97</f>
         <v>3000</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98" s="8">
+      <c r="G97" s="1" t="n">
+        <f aca="false">G96+C97-E97</f>
+        <v>-26118</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="9" t="n">
         <v>42898</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C98" s="2">
+      <c r="C98" s="2" t="n">
         <v>1500</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="D98" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E98" s="2">
+      <c r="E98" s="2" t="n">
         <v>1500</v>
       </c>
-      <c r="F98" s="2">
-        <f t="shared" si="1"/>
+      <c r="F98" s="2" t="n">
+        <f aca="false">C97+C98-E98</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="8">
+      <c r="G98" s="1" t="n">
+        <f aca="false">G97+C98-E98</f>
+        <v>-26118</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="9" t="n">
         <v>42899</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C99" s="2">
+      <c r="C99" s="2" t="n">
         <v>8500</v>
       </c>
-      <c r="D99" s="3" t="s">
+      <c r="D99" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E99" s="2">
+      <c r="E99" s="2" t="n">
         <v>8500</v>
       </c>
-      <c r="F99" s="2">
-        <f t="shared" si="1"/>
+      <c r="F99" s="2" t="n">
+        <f aca="false">C98+C99-E99</f>
         <v>1500</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100" s="8">
+      <c r="G99" s="1" t="n">
+        <f aca="false">G98+C99-E99</f>
+        <v>-26118</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="9" t="n">
         <v>42900</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C100" s="2">
+      <c r="C100" s="2" t="n">
         <v>12500</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="D100" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E100" s="2">
+      <c r="E100" s="2" t="n">
         <v>7000</v>
       </c>
-      <c r="F100" s="2">
-        <f t="shared" si="1"/>
+      <c r="F100" s="2" t="n">
+        <f aca="false">C99+C100-E100</f>
         <v>14000</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100" s="1" t="n">
+        <f aca="false">G99+C100-E100</f>
+        <v>-20618</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="2"/>
-      <c r="D101" s="3" t="s">
+      <c r="D101" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E101" s="2">
+      <c r="E101" s="2" t="n">
         <v>5000</v>
       </c>
-      <c r="F101" s="2">
-        <f t="shared" si="1"/>
+      <c r="F101" s="2" t="n">
+        <f aca="false">C100+C101-E101</f>
         <v>7500</v>
       </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102" s="8">
+      <c r="G101" s="1" t="n">
+        <f aca="false">G100+C101-E101</f>
+        <v>-25618</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="9" t="n">
         <v>42900</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C102" s="2">
+      <c r="C102" s="2" t="n">
         <v>1800</v>
       </c>
-      <c r="D102" s="3" t="s">
+      <c r="D102" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E102" s="2">
+      <c r="E102" s="2" t="n">
         <v>500</v>
       </c>
-      <c r="F102" s="2">
-        <f t="shared" si="1"/>
+      <c r="F102" s="2" t="n">
+        <f aca="false">C101+C102-E102</f>
         <v>1300</v>
       </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103" s="8">
+      <c r="G102" s="1" t="n">
+        <f aca="false">G101+C102-E102</f>
+        <v>-24318</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="9" t="n">
         <v>42900</v>
       </c>
       <c r="B103" s="1"/>
       <c r="C103" s="2"/>
-      <c r="D103" s="3" t="s">
+      <c r="D103" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E103" s="2">
+      <c r="E103" s="2" t="n">
         <v>1800</v>
       </c>
-      <c r="F103" s="2">
-        <f t="shared" si="1"/>
+      <c r="F103" s="2" t="n">
+        <f aca="false">C102+C103-E103</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104" s="8">
+      <c r="G103" s="1" t="n">
+        <f aca="false">G102+C103-E103</f>
+        <v>-26118</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="9" t="n">
         <v>42900</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C104" s="2">
+      <c r="C104" s="2" t="n">
         <v>31736</v>
       </c>
-      <c r="D104" s="3" t="s">
+      <c r="D104" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E104" s="2">
+      <c r="E104" s="2" t="n">
         <v>6000</v>
       </c>
-      <c r="F104" s="2">
-        <f t="shared" si="1"/>
+      <c r="F104" s="2" t="n">
+        <f aca="false">C103+C104-E104</f>
         <v>25736</v>
       </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105" s="8">
+      <c r="G104" s="1" t="n">
+        <f aca="false">G103+C104-E104</f>
+        <v>-382</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="9" t="n">
         <v>42901</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="2"/>
-      <c r="D105" s="3" t="s">
+      <c r="D105" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E105" s="2">
+      <c r="E105" s="2" t="n">
         <v>14855</v>
       </c>
-      <c r="F105" s="2">
-        <f t="shared" si="1"/>
+      <c r="F105" s="2" t="n">
+        <f aca="false">C104+C105-E105</f>
         <v>16881</v>
       </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106" s="8">
+      <c r="G105" s="1" t="n">
+        <f aca="false">G104+C105-E105</f>
+        <v>-15237</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="9" t="n">
         <v>42901</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="2"/>
-      <c r="D106" s="3" t="s">
+      <c r="D106" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E106" s="2">
+      <c r="E106" s="2" t="n">
         <v>5000</v>
       </c>
-      <c r="F106" s="2">
-        <f t="shared" si="1"/>
+      <c r="F106" s="2" t="n">
+        <f aca="false">C105+C106-E106</f>
         <v>-5000</v>
       </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107" s="8">
+      <c r="G106" s="1" t="n">
+        <f aca="false">G105+C106-E106</f>
+        <v>-20237</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="9" t="n">
         <v>42901</v>
       </c>
       <c r="B107" s="1"/>
       <c r="C107" s="2"/>
-      <c r="D107" s="3" t="s">
+      <c r="D107" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E107" s="2">
+      <c r="E107" s="2" t="n">
         <v>5881</v>
       </c>
-      <c r="F107" s="2">
-        <f t="shared" si="1"/>
+      <c r="F107" s="2" t="n">
+        <f aca="false">C106+C107-E107</f>
         <v>-5881</v>
+      </c>
+      <c r="G107" s="1" t="n">
+        <f aca="false">G106+C107-E107</f>
+        <v>-26118</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D2:G2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:H118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.25">
-      <c r="D1" s="10"/>
-      <c r="F1" s="10" t="s">
+    <row r="1" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1" s="11"/>
+      <c r="F1" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="16"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="D2" s="10"/>
-      <c r="F2" s="10"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="D3" s="10"/>
-      <c r="F3" s="10"/>
-    </row>
-    <row r="4" spans="1:8" ht="21">
+      <c r="H1" s="13"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2" s="11"/>
+      <c r="F2" s="11"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3" s="11"/>
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
@@ -3108,35 +3324,35 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="2">
+      <c r="F5" s="2" t="n">
         <v>-33.6</v>
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="8">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="n">
         <v>42856</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="2" t="n">
         <v>30000</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="2" t="n">
         <v>5300</v>
       </c>
-      <c r="G6" s="2">
-        <f>F5+D6-F6</f>
-        <v>24666.400000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="8">
+      <c r="G6" s="2" t="n">
+        <f aca="false">F5+D6-F6</f>
+        <v>24666.4</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="n">
         <v>42856</v>
       </c>
       <c r="B7" s="1"/>
@@ -3145,16 +3361,16 @@
       <c r="E7" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="2" t="n">
         <v>1733</v>
       </c>
-      <c r="G7" s="2">
-        <f>G6-F7</f>
+      <c r="G7" s="2" t="n">
+        <f aca="false">G6-F7</f>
         <v>22933.4</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="8">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="n">
         <v>42856</v>
       </c>
       <c r="B8" s="1"/>
@@ -3163,37 +3379,37 @@
       <c r="E8" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="2" t="n">
         <v>13200</v>
       </c>
-      <c r="G8" s="2">
-        <f>G7-F8</f>
-        <v>9733.4000000000015</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="8">
+      <c r="G8" s="2" t="n">
+        <f aca="false">G7-F8</f>
+        <v>9733.4</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9" t="n">
         <v>42857</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="2" t="n">
         <v>15480</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="2" t="n">
         <v>3000</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="8">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="n">
         <v>42857</v>
       </c>
       <c r="B10" s="1"/>
@@ -3202,16 +3418,16 @@
       <c r="E10" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="2" t="n">
         <v>10180</v>
       </c>
       <c r="G10" s="2" t="e">
-        <f t="shared" ref="G10:G32" si="0">G9+D10-F10</f>
+        <f aca="false">G9+D10-F10</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="8">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9" t="n">
         <v>42857</v>
       </c>
       <c r="B11" s="1"/>
@@ -3220,16 +3436,16 @@
       <c r="E11" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="2" t="n">
         <v>150</v>
       </c>
       <c r="G11" s="2" t="e">
-        <f t="shared" si="0"/>
+        <f aca="false">G10+D11-F11</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="8">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9" t="n">
         <v>42857</v>
       </c>
       <c r="B12" s="1"/>
@@ -3238,16 +3454,16 @@
       <c r="E12" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="2" t="n">
         <v>1300</v>
       </c>
       <c r="G12" s="2" t="e">
-        <f t="shared" si="0"/>
+        <f aca="false">G11+D12-F12</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="8">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="9" t="n">
         <v>42857</v>
       </c>
       <c r="B13" s="1"/>
@@ -3256,16 +3472,16 @@
       <c r="E13" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="2" t="n">
         <v>3200</v>
       </c>
       <c r="G13" s="2" t="e">
-        <f t="shared" si="0"/>
+        <f aca="false">G12+D13-F13</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="8">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="9" t="n">
         <v>42857</v>
       </c>
       <c r="B14" s="1"/>
@@ -3274,16 +3490,16 @@
       <c r="E14" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="2" t="n">
         <v>800</v>
       </c>
       <c r="G14" s="2" t="e">
-        <f t="shared" si="0"/>
+        <f aca="false">G13+D14-F14</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="8">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="9" t="n">
         <v>42857</v>
       </c>
       <c r="B15" s="1"/>
@@ -3292,16 +3508,16 @@
       <c r="E15" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="2" t="n">
         <v>2500</v>
       </c>
       <c r="G15" s="2" t="e">
-        <f t="shared" si="0"/>
+        <f aca="false">G14+D15-F15</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="8">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="9" t="n">
         <v>42857</v>
       </c>
       <c r="B16" s="1"/>
@@ -3310,16 +3526,16 @@
       <c r="E16" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="2" t="n">
         <v>100</v>
       </c>
       <c r="G16" s="2" t="e">
-        <f t="shared" si="0"/>
+        <f aca="false">G15+D16-F16</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="8">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="9" t="n">
         <v>42857</v>
       </c>
       <c r="B17" s="1"/>
@@ -3328,16 +3544,16 @@
       <c r="E17" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="2" t="n">
         <v>1620</v>
       </c>
       <c r="G17" s="2" t="e">
-        <f t="shared" si="0"/>
+        <f aca="false">G16+D17-F17</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="8">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="9" t="n">
         <v>42857</v>
       </c>
       <c r="B18" s="1"/>
@@ -3346,16 +3562,16 @@
       <c r="E18" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="2" t="n">
         <v>320</v>
       </c>
       <c r="G18" s="2" t="e">
-        <f t="shared" si="0"/>
+        <f aca="false">G17+D18-F18</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="8">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="9" t="n">
         <v>42857</v>
       </c>
       <c r="B19" s="1"/>
@@ -3364,16 +3580,16 @@
       <c r="E19" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="2" t="n">
         <v>100</v>
       </c>
       <c r="G19" s="2" t="e">
-        <f t="shared" si="0"/>
+        <f aca="false">G18+D19-F19</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="8">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="9" t="n">
         <v>42857</v>
       </c>
       <c r="B20" s="1"/>
@@ -3382,16 +3598,16 @@
       <c r="E20" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="2" t="n">
         <v>55</v>
       </c>
       <c r="G20" s="2" t="e">
-        <f t="shared" si="0"/>
+        <f aca="false">G19+D20-F20</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="8">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="9" t="n">
         <v>42857</v>
       </c>
       <c r="B21" s="1"/>
@@ -3400,38 +3616,38 @@
       <c r="E21" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="2" t="n">
         <v>250</v>
       </c>
       <c r="G21" s="2" t="e">
-        <f t="shared" si="0"/>
+        <f aca="false">G20+D21-F21</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="8">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="9" t="n">
         <v>42858</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="2" t="n">
         <v>500</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="2" t="n">
         <v>1500</v>
       </c>
       <c r="G22" s="2" t="e">
-        <f>G21+D22-F22</f>
+        <f aca="false">G21+D22-F22</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="8">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="9" t="n">
         <v>42858</v>
       </c>
       <c r="B23" s="1"/>
@@ -3440,38 +3656,38 @@
       <c r="E23" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="2" t="n">
         <v>720</v>
       </c>
       <c r="G23" s="2" t="e">
-        <f t="shared" ref="G23:G30" si="1">G22+D23-F23</f>
+        <f aca="false">G22+D23-F23</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="8">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="9" t="n">
         <v>42859</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="2" t="n">
         <v>14500</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="2" t="n">
         <v>1070</v>
       </c>
       <c r="G24" s="2" t="e">
-        <f t="shared" si="1"/>
+        <f aca="false">G23+D24-F24</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="8">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="9" t="n">
         <v>42859</v>
       </c>
       <c r="B25" s="1"/>
@@ -3480,16 +3696,16 @@
       <c r="E25" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="2" t="n">
         <v>50</v>
       </c>
       <c r="G25" s="2" t="e">
-        <f t="shared" si="1"/>
+        <f aca="false">G24+D25-F25</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="8">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="9" t="n">
         <v>42859</v>
       </c>
       <c r="B26" s="1"/>
@@ -3498,16 +3714,16 @@
       <c r="E26" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="2" t="n">
         <v>30</v>
       </c>
       <c r="G26" s="2" t="e">
-        <f t="shared" si="1"/>
+        <f aca="false">G25+D26-F26</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="8">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="9" t="n">
         <v>42859</v>
       </c>
       <c r="B27" s="1"/>
@@ -3516,38 +3732,38 @@
       <c r="E27" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="2" t="n">
         <v>280</v>
       </c>
       <c r="G27" s="2" t="e">
-        <f t="shared" si="1"/>
+        <f aca="false">G26+D27-F27</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="8">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="9" t="n">
         <v>42859</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="2" t="n">
         <v>1500</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="2" t="n">
         <v>13880</v>
       </c>
       <c r="G28" s="2" t="e">
-        <f>G27+D28-F28</f>
+        <f aca="false">G27+D28-F28</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="8">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="9" t="n">
         <v>42859</v>
       </c>
       <c r="B29" s="1"/>
@@ -3556,16 +3772,16 @@
       <c r="E29" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="2" t="n">
         <v>11</v>
       </c>
       <c r="G29" s="2" t="e">
-        <f t="shared" si="1"/>
+        <f aca="false">G28+D29-F29</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="8">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="9" t="n">
         <v>42859</v>
       </c>
       <c r="B30" s="1"/>
@@ -3574,38 +3790,38 @@
       <c r="E30" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="2" t="n">
         <v>338</v>
       </c>
       <c r="G30" s="2" t="e">
-        <f t="shared" si="1"/>
+        <f aca="false">G29+D30-F30</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="8">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="9" t="n">
         <v>42861</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="2" t="n">
         <v>2820</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="2" t="n">
         <v>2000</v>
       </c>
       <c r="G31" s="2" t="e">
-        <f t="shared" si="0"/>
+        <f aca="false">G30+D31-F31</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="8">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="9" t="n">
         <v>42861</v>
       </c>
       <c r="B32" s="1"/>
@@ -3614,16 +3830,16 @@
       <c r="E32" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="2" t="n">
         <v>1000</v>
       </c>
       <c r="G32" s="2" t="e">
-        <f t="shared" si="0"/>
+        <f aca="false">G31+D32-F32</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="8">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="9" t="n">
         <v>42861</v>
       </c>
       <c r="B33" s="1"/>
@@ -3632,16 +3848,16 @@
       <c r="E33" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="2" t="n">
         <v>95</v>
       </c>
       <c r="G33" s="2" t="e">
-        <f>G32-F33</f>
+        <f aca="false">G32-F33</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="8">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="9" t="n">
         <v>42861</v>
       </c>
       <c r="B34" s="1"/>
@@ -3650,16 +3866,16 @@
       <c r="E34" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="2" t="n">
         <v>100</v>
       </c>
       <c r="G34" s="2" t="e">
-        <f>G33-F34</f>
+        <f aca="false">G33-F34</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="8">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="9" t="n">
         <v>42861</v>
       </c>
       <c r="B35" s="1"/>
@@ -3668,16 +3884,16 @@
       <c r="E35" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="2" t="n">
         <v>18.5</v>
       </c>
       <c r="G35" s="2" t="e">
-        <f>G34-F35</f>
+        <f aca="false">G34-F35</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="8">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="9" t="n">
         <v>42861</v>
       </c>
       <c r="B36" s="1"/>
@@ -3686,38 +3902,38 @@
       <c r="E36" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="2" t="n">
         <v>50</v>
       </c>
       <c r="G36" s="2" t="e">
-        <f>G35-F36</f>
+        <f aca="false">G35-F36</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="8">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="9" t="n">
         <v>42862</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="2" t="n">
         <v>14000</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="2" t="n">
         <v>9326</v>
       </c>
-      <c r="G37" s="2">
-        <f>D37-F37-184</f>
+      <c r="G37" s="2" t="n">
+        <f aca="false">D37-F37-184</f>
         <v>4490</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="8">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="9" t="n">
         <v>42862</v>
       </c>
       <c r="B38" s="1"/>
@@ -3726,16 +3942,16 @@
       <c r="E38" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="2" t="n">
         <v>174</v>
       </c>
-      <c r="G38" s="2">
-        <f>G37-F38</f>
+      <c r="G38" s="2" t="n">
+        <f aca="false">G37-F38</f>
         <v>4316</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="8">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="9" t="n">
         <v>42862</v>
       </c>
       <c r="B39" s="1"/>
@@ -3744,38 +3960,38 @@
       <c r="E39" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="2" t="n">
         <v>120</v>
       </c>
-      <c r="G39" s="2">
-        <f t="shared" ref="G39:G50" si="2">G38-F39</f>
+      <c r="G39" s="2" t="n">
+        <f aca="false">G38-F39</f>
         <v>4196</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="8">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="9" t="n">
         <v>42862</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="2" t="n">
         <v>10</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="2" t="n">
         <v>700</v>
       </c>
-      <c r="G40" s="2">
-        <f>G39+D40-F40</f>
+      <c r="G40" s="2" t="n">
+        <f aca="false">G39+D40-F40</f>
         <v>3506</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="8">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="9" t="n">
         <v>42862</v>
       </c>
       <c r="B41" s="1"/>
@@ -3784,16 +4000,16 @@
       <c r="E41" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="G41" s="2">
-        <f t="shared" si="2"/>
+      <c r="G41" s="2" t="n">
+        <f aca="false">G40-F41</f>
         <v>3306</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="8">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="9" t="n">
         <v>42862</v>
       </c>
       <c r="B42" s="1"/>
@@ -3802,16 +4018,16 @@
       <c r="E42" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="G42" s="2">
-        <f t="shared" si="2"/>
+      <c r="G42" s="2" t="n">
+        <f aca="false">G41-F42</f>
         <v>3206</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="8">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="9" t="n">
         <v>42862</v>
       </c>
       <c r="B43" s="1"/>
@@ -3820,16 +4036,16 @@
       <c r="E43" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="2" t="n">
         <v>1500</v>
       </c>
-      <c r="G43" s="2">
-        <f t="shared" si="2"/>
+      <c r="G43" s="2" t="n">
+        <f aca="false">G42-F43</f>
         <v>1706</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="8">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="9" t="n">
         <v>42862</v>
       </c>
       <c r="B44" s="1"/>
@@ -3838,16 +4054,16 @@
       <c r="E44" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="2" t="n">
         <v>500</v>
       </c>
-      <c r="G44" s="2">
-        <f t="shared" si="2"/>
+      <c r="G44" s="2" t="n">
+        <f aca="false">G43-F44</f>
         <v>1206</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="8">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="9" t="n">
         <v>42863</v>
       </c>
       <c r="B45" s="1"/>
@@ -3856,16 +4072,16 @@
       <c r="E45" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="G45" s="2">
-        <f t="shared" si="2"/>
+      <c r="G45" s="2" t="n">
+        <f aca="false">G44-F45</f>
         <v>1146</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="8">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="9" t="n">
         <v>42863</v>
       </c>
       <c r="B46" s="1"/>
@@ -3874,16 +4090,16 @@
       <c r="E46" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="G46" s="2">
-        <f t="shared" si="2"/>
+      <c r="G46" s="2" t="n">
+        <f aca="false">G45-F46</f>
         <v>1096</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="8">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="9" t="n">
         <v>42863</v>
       </c>
       <c r="B47" s="1"/>
@@ -3892,16 +4108,16 @@
       <c r="E47" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47" s="2" t="n">
         <v>1050</v>
       </c>
-      <c r="G47" s="2">
-        <f t="shared" si="2"/>
+      <c r="G47" s="2" t="n">
+        <f aca="false">G46-F47</f>
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="8">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="9" t="n">
         <v>42863</v>
       </c>
       <c r="B48" s="1"/>
@@ -3910,16 +4126,16 @@
       <c r="E48" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="G48" s="2">
-        <f t="shared" si="2"/>
+      <c r="G48" s="2" t="n">
+        <f aca="false">G47-F48</f>
         <v>-24</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="8">
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="9" t="n">
         <v>42863</v>
       </c>
       <c r="B49" s="1"/>
@@ -3928,16 +4144,16 @@
       <c r="E49" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="G49" s="2">
-        <f t="shared" si="2"/>
+      <c r="G49" s="2" t="n">
+        <f aca="false">G48-F49</f>
         <v>-224</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="8">
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="9" t="n">
         <v>42863</v>
       </c>
       <c r="B50" s="1"/>
@@ -3946,82 +4162,82 @@
       <c r="E50" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="G50" s="2">
-        <f t="shared" si="2"/>
+      <c r="G50" s="2" t="n">
+        <f aca="false">G49-F50</f>
         <v>-248</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="8">
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="9" t="n">
         <v>42863</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="2" t="n">
         <v>1800</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51" s="2" t="n">
         <v>500</v>
       </c>
-      <c r="G51" s="2">
-        <f>D51-F51-248</f>
+      <c r="G51" s="2" t="n">
+        <f aca="false">D51-F51-248</f>
         <v>1052</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="8">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="9" t="n">
         <v>42865</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="2" t="n">
         <v>500</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F52" s="2" t="n">
         <v>150</v>
       </c>
-      <c r="G52" s="2">
-        <f>G51+D52-F52</f>
+      <c r="G52" s="2" t="n">
+        <f aca="false">G51+D52-F52</f>
         <v>1402</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="8">
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="9" t="n">
         <v>42866</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="2" t="n">
         <v>1800</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F53" s="2" t="n">
         <v>2000</v>
       </c>
-      <c r="G53" s="2">
-        <f t="shared" ref="G53:G75" si="3">G52+D53-F53</f>
+      <c r="G53" s="2" t="n">
+        <f aca="false">G52+D53-F53</f>
         <v>1202</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="8">
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="9" t="n">
         <v>42866</v>
       </c>
       <c r="B54" s="1"/>
@@ -4030,60 +4246,60 @@
       <c r="E54" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F54" s="2" t="n">
         <v>1358</v>
       </c>
-      <c r="G54" s="2">
-        <f t="shared" si="3"/>
+      <c r="G54" s="2" t="n">
+        <f aca="false">G53+D54-F54</f>
         <v>-156</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="8">
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="9" t="n">
         <v>42866</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="2" t="n">
         <v>5500</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F55" s="2" t="n">
         <v>2500</v>
       </c>
-      <c r="G55" s="2">
-        <f t="shared" si="3"/>
+      <c r="G55" s="2" t="n">
+        <f aca="false">G54+D55-F55</f>
         <v>2844</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="8">
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="9" t="n">
         <v>42868</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56" s="2" t="n">
         <v>2000</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F56" s="2" t="n">
         <v>300</v>
       </c>
-      <c r="G56" s="2">
-        <f t="shared" si="3"/>
+      <c r="G56" s="2" t="n">
+        <f aca="false">G55+D56-F56</f>
         <v>4544</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="8">
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="9" t="n">
         <v>42868</v>
       </c>
       <c r="B57" s="1"/>
@@ -4092,16 +4308,16 @@
       <c r="E57" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F57" s="2" t="n">
         <v>2000</v>
       </c>
-      <c r="G57" s="2">
-        <f t="shared" si="3"/>
+      <c r="G57" s="2" t="n">
+        <f aca="false">G56+D57-F57</f>
         <v>2544</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="8">
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="9" t="n">
         <v>42869</v>
       </c>
       <c r="B58" s="1"/>
@@ -4110,16 +4326,16 @@
       <c r="E58" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F58" s="2">
+      <c r="F58" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="G58" s="2">
-        <f t="shared" si="3"/>
+      <c r="G58" s="2" t="n">
+        <f aca="false">G57+D58-F58</f>
         <v>2344</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="8">
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="9" t="n">
         <v>42869</v>
       </c>
       <c r="B59" s="1"/>
@@ -4128,16 +4344,16 @@
       <c r="E59" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F59" s="2">
+      <c r="F59" s="2" t="n">
         <v>300</v>
       </c>
-      <c r="G59" s="2">
-        <f t="shared" si="3"/>
+      <c r="G59" s="2" t="n">
+        <f aca="false">G58+D59-F59</f>
         <v>2044</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="8">
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="9" t="n">
         <v>42869</v>
       </c>
       <c r="B60" s="1"/>
@@ -4146,16 +4362,16 @@
       <c r="E60" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F60" s="2">
+      <c r="F60" s="2" t="n">
         <v>450</v>
       </c>
-      <c r="G60" s="2">
-        <f t="shared" si="3"/>
+      <c r="G60" s="2" t="n">
+        <f aca="false">G59+D60-F60</f>
         <v>1594</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="8">
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="9" t="n">
         <v>42869</v>
       </c>
       <c r="B61" s="1"/>
@@ -4164,38 +4380,38 @@
       <c r="E61" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F61" s="2">
+      <c r="F61" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="G61" s="2">
-        <f t="shared" si="3"/>
+      <c r="G61" s="2" t="n">
+        <f aca="false">G60+D61-F61</f>
         <v>1544</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="8">
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="9" t="n">
         <v>42871</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D62" s="2" t="n">
         <v>2000</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F62" s="2">
+      <c r="F62" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="G62" s="2">
-        <f t="shared" si="3"/>
+      <c r="G62" s="2" t="n">
+        <f aca="false">G61+D62-F62</f>
         <v>3344</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="8">
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="9" t="n">
         <v>42871</v>
       </c>
       <c r="B63" s="1"/>
@@ -4204,16 +4420,16 @@
       <c r="E63" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F63" s="2">
+      <c r="F63" s="2" t="n">
         <v>206.65</v>
       </c>
-      <c r="G63" s="2">
-        <f t="shared" si="3"/>
+      <c r="G63" s="2" t="n">
+        <f aca="false">G62+D63-F63</f>
         <v>3137.35</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="8">
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="9" t="n">
         <v>42871</v>
       </c>
       <c r="B64" s="1"/>
@@ -4222,16 +4438,16 @@
       <c r="E64" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F64" s="2">
+      <c r="F64" s="2" t="n">
         <v>150</v>
       </c>
-      <c r="G64" s="2">
-        <f t="shared" si="3"/>
+      <c r="G64" s="2" t="n">
+        <f aca="false">G63+D64-F64</f>
         <v>2987.35</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="8">
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="9" t="n">
         <v>42871</v>
       </c>
       <c r="B65" s="1"/>
@@ -4240,16 +4456,16 @@
       <c r="E65" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F65" s="2">
+      <c r="F65" s="2" t="n">
         <v>370</v>
       </c>
-      <c r="G65" s="2">
-        <f t="shared" si="3"/>
+      <c r="G65" s="2" t="n">
+        <f aca="false">G64+D65-F65</f>
         <v>2617.35</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="8">
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="9" t="n">
         <v>42871</v>
       </c>
       <c r="B66" s="1"/>
@@ -4258,16 +4474,16 @@
       <c r="E66" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F66" s="2">
+      <c r="F66" s="2" t="n">
         <v>236</v>
       </c>
-      <c r="G66" s="2">
-        <f t="shared" si="3"/>
+      <c r="G66" s="2" t="n">
+        <f aca="false">G65+D66-F66</f>
         <v>2381.35</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="8">
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="9" t="n">
         <v>42871</v>
       </c>
       <c r="B67" s="1"/>
@@ -4276,16 +4492,16 @@
       <c r="E67" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F67" s="2">
+      <c r="F67" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="G67" s="2">
-        <f t="shared" si="3"/>
+      <c r="G67" s="2" t="n">
+        <f aca="false">G66+D67-F67</f>
         <v>2369.35</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="8">
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="9" t="n">
         <v>42871</v>
       </c>
       <c r="B68" s="1"/>
@@ -4294,16 +4510,16 @@
       <c r="E68" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F68" s="2">
+      <c r="F68" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="G68" s="2">
-        <f t="shared" si="3"/>
+      <c r="G68" s="2" t="n">
+        <f aca="false">G67+D68-F68</f>
         <v>2344.35</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="8">
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="9" t="n">
         <v>42871</v>
       </c>
       <c r="B69" s="1"/>
@@ -4312,16 +4528,16 @@
       <c r="E69" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F69" s="2">
+      <c r="F69" s="2" t="n">
         <v>105</v>
       </c>
-      <c r="G69" s="2">
-        <f t="shared" si="3"/>
+      <c r="G69" s="2" t="n">
+        <f aca="false">G68+D69-F69</f>
         <v>2239.35</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="8">
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="9" t="n">
         <v>42871</v>
       </c>
       <c r="B70" s="1"/>
@@ -4330,114 +4546,114 @@
       <c r="E70" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F70" s="2">
+      <c r="F70" s="2" t="n">
         <v>500</v>
       </c>
-      <c r="G70" s="2">
-        <f t="shared" si="3"/>
+      <c r="G70" s="2" t="n">
+        <f aca="false">G69+D70-F70</f>
         <v>1739.35</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="8">
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="9" t="n">
         <v>42872</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D71" s="2" t="n">
         <v>5000</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="2"/>
-      <c r="G71" s="2">
-        <f>G70+D71</f>
+      <c r="G71" s="2" t="n">
+        <f aca="false">G70+D71</f>
         <v>6739.35</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="8">
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="9" t="n">
         <v>42873</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D72" s="2">
+      <c r="D72" s="2" t="n">
         <v>100</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F72" s="2">
+      <c r="F72" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="G72" s="2">
-        <f t="shared" si="3"/>
+      <c r="G72" s="2" t="n">
+        <f aca="false">G71+D72-F72</f>
         <v>6739.35</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="8">
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="9" t="n">
         <v>42873</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D73" s="2">
+      <c r="D73" s="2" t="n">
         <v>26750</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F73" s="2">
+      <c r="F73" s="2" t="n">
         <v>5000</v>
       </c>
-      <c r="G73" s="2">
-        <f t="shared" si="3"/>
+      <c r="G73" s="2" t="n">
+        <f aca="false">G72+D73-F73</f>
         <v>28489.35</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="8">
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="9" t="n">
         <v>42873</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D74" s="2">
+      <c r="D74" s="2" t="n">
         <v>3000</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="2"/>
-      <c r="G74" s="2">
-        <f t="shared" si="3"/>
+      <c r="G74" s="2" t="n">
+        <f aca="false">G73+D74-F74</f>
         <v>31489.35</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="8">
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="9" t="n">
         <v>42873</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D75" s="2">
+      <c r="D75" s="2" t="n">
         <v>12080</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="2"/>
-      <c r="G75" s="2">
-        <f t="shared" si="3"/>
+      <c r="G75" s="2" t="n">
+        <f aca="false">G74+D75-F75</f>
         <v>43569.35</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="8">
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="9" t="n">
         <v>42873</v>
       </c>
       <c r="B76" s="1"/>
@@ -4446,16 +4662,16 @@
       <c r="E76" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F76" s="2">
+      <c r="F76" s="2" t="n">
         <v>6000</v>
       </c>
-      <c r="G76" s="2">
-        <f>G75-F76</f>
+      <c r="G76" s="2" t="n">
+        <f aca="false">G75-F76</f>
         <v>37569.35</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
-      <c r="A77" s="8">
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="9" t="n">
         <v>42873</v>
       </c>
       <c r="B77" s="1"/>
@@ -4464,16 +4680,16 @@
       <c r="E77" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F77" s="2">
+      <c r="F77" s="2" t="n">
         <v>6000</v>
       </c>
-      <c r="G77" s="2">
-        <f t="shared" ref="G77:G89" si="4">G76-F77</f>
+      <c r="G77" s="2" t="n">
+        <f aca="false">G76-F77</f>
         <v>31569.35</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
-      <c r="A78" s="8">
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="9" t="n">
         <v>42873</v>
       </c>
       <c r="B78" s="1"/>
@@ -4482,16 +4698,16 @@
       <c r="E78" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F78" s="2">
+      <c r="F78" s="2" t="n">
         <v>6000</v>
       </c>
-      <c r="G78" s="2">
-        <f t="shared" si="4"/>
+      <c r="G78" s="2" t="n">
+        <f aca="false">G77-F78</f>
         <v>25569.35</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
-      <c r="A79" s="8">
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="9" t="n">
         <v>42873</v>
       </c>
       <c r="B79" s="1"/>
@@ -4500,16 +4716,16 @@
       <c r="E79" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F79" s="2">
+      <c r="F79" s="2" t="n">
         <v>1500</v>
       </c>
-      <c r="G79" s="2">
-        <f t="shared" si="4"/>
+      <c r="G79" s="2" t="n">
+        <f aca="false">G78-F79</f>
         <v>24069.35</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
-      <c r="A80" s="8">
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="9" t="n">
         <v>42873</v>
       </c>
       <c r="B80" s="1"/>
@@ -4518,16 +4734,16 @@
       <c r="E80" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F80" s="2">
+      <c r="F80" s="2" t="n">
         <v>1500</v>
       </c>
-      <c r="G80" s="2">
-        <f t="shared" si="4"/>
+      <c r="G80" s="2" t="n">
+        <f aca="false">G79-F80</f>
         <v>22569.35</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
-      <c r="A81" s="8">
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="9" t="n">
         <v>42873</v>
       </c>
       <c r="B81" s="1"/>
@@ -4536,16 +4752,16 @@
       <c r="E81" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F81" s="2">
+      <c r="F81" s="2" t="n">
         <v>1500</v>
       </c>
-      <c r="G81" s="2">
-        <f t="shared" si="4"/>
+      <c r="G81" s="2" t="n">
+        <f aca="false">G80-F81</f>
         <v>21069.35</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
-      <c r="A82" s="8">
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="9" t="n">
         <v>42873</v>
       </c>
       <c r="B82" s="1"/>
@@ -4554,16 +4770,16 @@
       <c r="E82" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="F82" s="2">
+      <c r="F82" s="2" t="n">
         <v>7000</v>
       </c>
-      <c r="G82" s="2">
-        <f t="shared" si="4"/>
-        <v>14069.349999999999</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="A83" s="8">
+      <c r="G82" s="2" t="n">
+        <f aca="false">G81-F82</f>
+        <v>14069.35</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="9" t="n">
         <v>42873</v>
       </c>
       <c r="B83" s="1"/>
@@ -4572,16 +4788,16 @@
       <c r="E83" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F83" s="2">
+      <c r="F83" s="2" t="n">
         <v>2800</v>
       </c>
-      <c r="G83" s="2">
-        <f t="shared" si="4"/>
-        <v>11269.349999999999</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
-      <c r="A84" s="8">
+      <c r="G83" s="2" t="n">
+        <f aca="false">G82-F83</f>
+        <v>11269.35</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="9" t="n">
         <v>42873</v>
       </c>
       <c r="B84" s="1"/>
@@ -4590,16 +4806,16 @@
       <c r="E84" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F84" s="2">
+      <c r="F84" s="2" t="n">
         <v>1200</v>
       </c>
-      <c r="G84" s="2">
-        <f t="shared" si="4"/>
-        <v>10069.349999999999</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
-      <c r="A85" s="8">
+      <c r="G84" s="2" t="n">
+        <f aca="false">G83-F84</f>
+        <v>10069.35</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="9" t="n">
         <v>42873</v>
       </c>
       <c r="B85" s="1"/>
@@ -4608,16 +4824,16 @@
       <c r="E85" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F85" s="2">
+      <c r="F85" s="2" t="n">
         <v>5500</v>
       </c>
-      <c r="G85" s="2">
-        <f t="shared" si="4"/>
-        <v>4569.3499999999985</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="A86" s="8">
+      <c r="G85" s="2" t="n">
+        <f aca="false">G84-F85</f>
+        <v>4569.35</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="9" t="n">
         <v>42873</v>
       </c>
       <c r="B86" s="1"/>
@@ -4626,16 +4842,16 @@
       <c r="E86" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F86" s="2">
+      <c r="F86" s="2" t="n">
         <v>1500</v>
       </c>
-      <c r="G86" s="2">
-        <f t="shared" si="4"/>
-        <v>3069.3499999999985</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="A87" s="8">
+      <c r="G86" s="2" t="n">
+        <f aca="false">G85-F86</f>
+        <v>3069.35</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="9" t="n">
         <v>42873</v>
       </c>
       <c r="B87" s="1"/>
@@ -4644,16 +4860,16 @@
       <c r="E87" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F87" s="2">
+      <c r="F87" s="2" t="n">
         <v>1000</v>
       </c>
-      <c r="G87" s="2">
-        <f t="shared" si="4"/>
-        <v>2069.3499999999985</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
-      <c r="A88" s="8">
+      <c r="G87" s="2" t="n">
+        <f aca="false">G86-F87</f>
+        <v>2069.35</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="9" t="n">
         <v>42873</v>
       </c>
       <c r="B88" s="1"/>
@@ -4662,16 +4878,16 @@
       <c r="E88" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F88" s="2">
+      <c r="F88" s="2" t="n">
         <v>1500</v>
       </c>
-      <c r="G88" s="2">
-        <f t="shared" si="4"/>
-        <v>569.34999999999854</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
-      <c r="A89" s="8">
+      <c r="G88" s="2" t="n">
+        <f aca="false">G87-F88</f>
+        <v>569.349999999999</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="9" t="n">
         <v>42873</v>
       </c>
       <c r="B89" s="1"/>
@@ -4680,60 +4896,60 @@
       <c r="E89" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F89" s="2">
+      <c r="F89" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="G89" s="2">
-        <f t="shared" si="4"/>
-        <v>469.34999999999854</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
-      <c r="A90" s="8">
+      <c r="G89" s="2" t="n">
+        <f aca="false">G88-F89</f>
+        <v>469.349999999999</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="9" t="n">
         <v>42876</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D90" s="2">
+      <c r="D90" s="2" t="n">
         <v>500</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F90" s="2">
+      <c r="F90" s="2" t="n">
         <v>610</v>
       </c>
-      <c r="G90" s="2">
-        <f>G89+D90-F90</f>
-        <v>359.34999999999854</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
-      <c r="A91" s="8">
+      <c r="G90" s="2" t="n">
+        <f aca="false">G89+D90-F90</f>
+        <v>359.349999999999</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="9" t="n">
         <v>42876</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D91" s="2">
+      <c r="D91" s="2" t="n">
         <v>500</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F91" s="2">
+      <c r="F91" s="2" t="n">
         <v>500</v>
       </c>
-      <c r="G91" s="2">
-        <f t="shared" ref="G91:G117" si="5">G90+D91-F91</f>
-        <v>359.34999999999854</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
-      <c r="A92" s="8">
+      <c r="G91" s="2" t="n">
+        <f aca="false">G90+D91-F91</f>
+        <v>359.349999999999</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="9" t="n">
         <v>42876</v>
       </c>
       <c r="B92" s="1"/>
@@ -4742,60 +4958,60 @@
       <c r="E92" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F92" s="2">
+      <c r="F92" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="G92" s="2">
-        <f t="shared" si="5"/>
-        <v>159.34999999999854</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
-      <c r="A93" s="8">
+      <c r="G92" s="2" t="n">
+        <f aca="false">G91+D92-F92</f>
+        <v>159.349999999999</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="9" t="n">
         <v>42876</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D93" s="2">
+      <c r="D93" s="2" t="n">
         <v>8400</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F93" s="2">
+      <c r="F93" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="G93" s="2">
-        <f t="shared" si="5"/>
-        <v>8532.3499999999985</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
-      <c r="A94" s="8">
+      <c r="G93" s="2" t="n">
+        <f aca="false">G92+D93-F93</f>
+        <v>8532.35</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="9" t="n">
         <v>42877</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D94" s="2">
+      <c r="D94" s="2" t="n">
         <v>500</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F94" s="2">
+      <c r="F94" s="2" t="n">
         <v>8230</v>
       </c>
-      <c r="G94" s="2">
-        <f t="shared" si="5"/>
-        <v>802.34999999999854</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
-      <c r="A95" s="8">
+      <c r="G94" s="2" t="n">
+        <f aca="false">G93+D94-F94</f>
+        <v>802.349999999999</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="9" t="n">
         <v>42877</v>
       </c>
       <c r="B95" s="1"/>
@@ -4804,60 +5020,60 @@
       <c r="E95" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F95" s="2">
+      <c r="F95" s="2" t="n">
         <v>500</v>
       </c>
-      <c r="G95" s="2">
-        <f t="shared" si="5"/>
-        <v>302.34999999999854</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
-      <c r="A96" s="8">
+      <c r="G95" s="2" t="n">
+        <f aca="false">G94+D95-F95</f>
+        <v>302.349999999999</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="9" t="n">
         <v>42878</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D96" s="2">
+      <c r="D96" s="2" t="n">
         <v>1500</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F96" s="2">
+      <c r="F96" s="2" t="n">
         <v>1500</v>
       </c>
-      <c r="G96" s="2">
-        <f t="shared" si="5"/>
-        <v>302.34999999999854</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
-      <c r="A97" s="8">
+      <c r="G96" s="2" t="n">
+        <f aca="false">G95+D96-F96</f>
+        <v>302.349999999999</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="9" t="n">
         <v>42880</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D97" s="2">
+      <c r="D97" s="2" t="n">
         <v>7000</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F97" s="2">
+      <c r="F97" s="2" t="n">
         <v>1500</v>
       </c>
-      <c r="G97" s="2">
-        <f t="shared" si="5"/>
-        <v>5802.3499999999985</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
-      <c r="A98" s="8">
+      <c r="G97" s="2" t="n">
+        <f aca="false">G96+D97-F97</f>
+        <v>5802.35</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="9" t="n">
         <v>42880</v>
       </c>
       <c r="B98" s="1"/>
@@ -4866,16 +5082,16 @@
       <c r="E98" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F98" s="2">
+      <c r="F98" s="2" t="n">
         <v>1000</v>
       </c>
-      <c r="G98" s="2">
-        <f t="shared" si="5"/>
-        <v>4802.3499999999985</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
-      <c r="A99" s="8">
+      <c r="G98" s="2" t="n">
+        <f aca="false">G97+D98-F98</f>
+        <v>4802.35</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="9" t="n">
         <v>42880</v>
       </c>
       <c r="B99" s="1"/>
@@ -4884,16 +5100,16 @@
       <c r="E99" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F99" s="2">
+      <c r="F99" s="2" t="n">
         <v>150</v>
       </c>
-      <c r="G99" s="2">
-        <f t="shared" si="5"/>
-        <v>4652.3499999999985</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
-      <c r="A100" s="8">
+      <c r="G99" s="2" t="n">
+        <f aca="false">G98+D99-F99</f>
+        <v>4652.35</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="9" t="n">
         <v>42880</v>
       </c>
       <c r="B100" s="1"/>
@@ -4902,16 +5118,16 @@
       <c r="E100" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F100" s="2">
+      <c r="F100" s="2" t="n">
         <v>300.5</v>
       </c>
-      <c r="G100" s="2">
-        <f t="shared" si="5"/>
-        <v>4351.8499999999985</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
-      <c r="A101" s="8">
+      <c r="G100" s="2" t="n">
+        <f aca="false">G99+D100-F100</f>
+        <v>4351.85</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="9" t="n">
         <v>42880</v>
       </c>
       <c r="B101" s="1"/>
@@ -4920,34 +5136,34 @@
       <c r="E101" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F101" s="2">
+      <c r="F101" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="G101" s="2">
-        <f t="shared" si="5"/>
-        <v>4311.8499999999985</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
-      <c r="A102" s="8">
+      <c r="G101" s="2" t="n">
+        <f aca="false">G100+D101-F101</f>
+        <v>4311.85</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="9" t="n">
         <v>42880</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
-      <c r="D102" s="12"/>
+      <c r="D102" s="14"/>
       <c r="E102" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F102" s="2">
+      <c r="F102" s="2" t="n">
         <v>3500</v>
       </c>
-      <c r="G102" s="2">
-        <f>G101+D102-F102</f>
-        <v>811.84999999999854</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
-      <c r="A103" s="8">
+      <c r="G102" s="2" t="n">
+        <f aca="false">G101+D102-F102</f>
+        <v>811.849999999999</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="9" t="n">
         <v>42882</v>
       </c>
       <c r="B103" s="1"/>
@@ -4956,38 +5172,38 @@
       <c r="E103" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F103" s="2">
+      <c r="F103" s="2" t="n">
         <v>250</v>
       </c>
-      <c r="G103" s="2">
-        <f t="shared" si="5"/>
-        <v>561.84999999999854</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
-      <c r="A104" s="8">
+      <c r="G103" s="2" t="n">
+        <f aca="false">G102+D103-F103</f>
+        <v>561.849999999999</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="9" t="n">
         <v>42882</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D104" s="2">
+      <c r="D104" s="2" t="n">
         <v>2000</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F104" s="2">
+      <c r="F104" s="2" t="n">
         <v>500</v>
       </c>
-      <c r="G104" s="2">
-        <f t="shared" si="5"/>
-        <v>2061.8499999999985</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
-      <c r="A105" s="8">
+      <c r="G104" s="2" t="n">
+        <f aca="false">G103+D104-F104</f>
+        <v>2061.85</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="9" t="n">
         <v>42882</v>
       </c>
       <c r="B105" s="1"/>
@@ -4996,38 +5212,38 @@
       <c r="E105" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F105" s="2">
+      <c r="F105" s="2" t="n">
         <v>450</v>
       </c>
-      <c r="G105" s="2">
-        <f t="shared" si="5"/>
-        <v>1611.8499999999985</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7">
-      <c r="A106" s="8">
+      <c r="G105" s="2" t="n">
+        <f aca="false">G104+D105-F105</f>
+        <v>1611.85</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="9" t="n">
         <v>42883</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D106" s="2">
+      <c r="D106" s="2" t="n">
         <v>9000</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="F106" s="2">
+      <c r="F106" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="G106" s="2">
-        <f t="shared" si="5"/>
-        <v>10604.849999999999</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
-      <c r="A107" s="8">
+      <c r="G106" s="2" t="n">
+        <f aca="false">G105+D106-F106</f>
+        <v>10604.85</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="9" t="n">
         <v>42883</v>
       </c>
       <c r="B107" s="1"/>
@@ -5036,16 +5252,16 @@
       <c r="E107" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F107" s="2">
+      <c r="F107" s="2" t="n">
         <v>6800</v>
       </c>
-      <c r="G107" s="2">
-        <f t="shared" si="5"/>
-        <v>3804.8499999999985</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
-      <c r="A108" s="8">
+      <c r="G107" s="2" t="n">
+        <f aca="false">G106+D107-F107</f>
+        <v>3804.85</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="9" t="n">
         <v>42883</v>
       </c>
       <c r="B108" s="1"/>
@@ -5054,16 +5270,16 @@
       <c r="E108" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F108" s="2">
+      <c r="F108" s="2" t="n">
         <v>500</v>
       </c>
-      <c r="G108" s="2">
-        <f t="shared" si="5"/>
-        <v>3304.8499999999985</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
-      <c r="A109" s="8">
+      <c r="G108" s="2" t="n">
+        <f aca="false">G107+D108-F108</f>
+        <v>3304.85</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="9" t="n">
         <v>42883</v>
       </c>
       <c r="B109" s="1"/>
@@ -5072,16 +5288,16 @@
       <c r="E109" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F109" s="2">
+      <c r="F109" s="2" t="n">
         <v>2500</v>
       </c>
-      <c r="G109" s="2">
-        <f t="shared" si="5"/>
-        <v>804.84999999999854</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
-      <c r="A110" s="8">
+      <c r="G109" s="2" t="n">
+        <f aca="false">G108+D109-F109</f>
+        <v>804.849999999998</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="9" t="n">
         <v>42883</v>
       </c>
       <c r="B110" s="1"/>
@@ -5090,38 +5306,38 @@
       <c r="E110" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F110" s="2">
+      <c r="F110" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="G110" s="2">
-        <f t="shared" si="5"/>
-        <v>754.84999999999854</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
-      <c r="A111" s="8">
+      <c r="G110" s="2" t="n">
+        <f aca="false">G109+D110-F110</f>
+        <v>754.849999999999</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="9" t="n">
         <v>42883</v>
       </c>
       <c r="B111" s="1"/>
       <c r="C111" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D111" s="2">
+      <c r="D111" s="2" t="n">
         <v>3000</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="F111" s="2">
+      <c r="F111" s="2" t="n">
         <v>975</v>
       </c>
-      <c r="G111" s="2">
-        <f t="shared" si="5"/>
-        <v>2779.8499999999985</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
-      <c r="A112" s="8">
+      <c r="G111" s="2" t="n">
+        <f aca="false">G110+D111-F111</f>
+        <v>2779.85</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="9" t="n">
         <v>42883</v>
       </c>
       <c r="B112" s="1"/>
@@ -5130,16 +5346,16 @@
       <c r="E112" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F112" s="2">
+      <c r="F112" s="2" t="n">
         <v>1675</v>
       </c>
-      <c r="G112" s="2">
-        <f t="shared" si="5"/>
-        <v>1104.8499999999985</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
-      <c r="A113" s="8">
+      <c r="G112" s="2" t="n">
+        <f aca="false">G111+D112-F112</f>
+        <v>1104.85</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="9" t="n">
         <v>42884</v>
       </c>
       <c r="B113" s="1"/>
@@ -5148,16 +5364,16 @@
       <c r="E113" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F113" s="2">
+      <c r="F113" s="2" t="n">
         <v>90</v>
       </c>
-      <c r="G113" s="2">
-        <f t="shared" si="5"/>
-        <v>1014.8499999999985</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
-      <c r="A114" s="8">
+      <c r="G113" s="2" t="n">
+        <f aca="false">G112+D113-F113</f>
+        <v>1014.85</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="9" t="n">
         <v>42885</v>
       </c>
       <c r="B114" s="1"/>
@@ -5166,38 +5382,38 @@
       <c r="E114" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F114" s="2">
+      <c r="F114" s="2" t="n">
         <v>500</v>
       </c>
-      <c r="G114" s="2">
-        <f t="shared" si="5"/>
-        <v>514.84999999999854</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
-      <c r="A115" s="8">
+      <c r="G114" s="2" t="n">
+        <f aca="false">G113+D114-F114</f>
+        <v>514.849999999999</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="9" t="n">
         <v>42885</v>
       </c>
       <c r="B115" s="1"/>
       <c r="C115" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D115" s="2">
+      <c r="D115" s="2" t="n">
         <v>300</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F115" s="2">
+      <c r="F115" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="G115" s="2">
-        <f t="shared" si="5"/>
-        <v>714.84999999999854</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
-      <c r="A116" s="8">
+      <c r="G115" s="2" t="n">
+        <f aca="false">G114+D115-F115</f>
+        <v>714.849999999999</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="9" t="n">
         <v>42885</v>
       </c>
       <c r="B116" s="1"/>
@@ -5206,16 +5422,16 @@
       <c r="E116" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F116" s="2">
+      <c r="F116" s="2" t="n">
         <v>300</v>
       </c>
-      <c r="G116" s="2">
-        <f t="shared" si="5"/>
-        <v>414.84999999999854</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
-      <c r="A117" s="8">
+      <c r="G116" s="2" t="n">
+        <f aca="false">G115+D116-F116</f>
+        <v>414.849999999999</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="9" t="n">
         <v>42885</v>
       </c>
       <c r="B117" s="1"/>
@@ -5224,672 +5440,684 @@
       <c r="E117" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F117" s="2">
+      <c r="F117" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="G117" s="2">
-        <f t="shared" si="5"/>
-        <v>314.84999999999854</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
-      <c r="D118" s="10">
-        <f>SUM(D5:D117)</f>
+      <c r="G117" s="2" t="n">
+        <f aca="false">G116+D117-F117</f>
+        <v>314.849999999999</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D118" s="11" t="n">
+        <f aca="false">SUM(D5:D117)</f>
         <v>172040</v>
       </c>
-      <c r="F118" s="10">
-        <f>SUM(F5:F117)</f>
+      <c r="F118" s="11" t="n">
+        <f aca="false">SUM(F5:F117)</f>
         <v>171658.05</v>
       </c>
-      <c r="G118" s="10">
-        <f>D118-F118</f>
-        <v>381.95000000001164</v>
+      <c r="G118" s="11" t="n">
+        <f aca="false">D118-F118</f>
+        <v>381.950000000012</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="G1:H1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q13" activeCellId="0" sqref="Q13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="23.25">
-      <c r="C1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="17" t="s">
+    <row r="1" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" t="s">
+      <c r="H1" s="15"/>
+      <c r="I1" s="0" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="C2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-    </row>
-    <row r="3" spans="1:9" ht="18.75">
-      <c r="A3" s="13" t="s">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="17" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="8">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="n">
         <v>42859</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="2" t="n">
         <v>1000</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="2">
-        <f>C4-F4</f>
+      <c r="G4" s="2" t="n">
+        <f aca="false">C4-F4</f>
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="8">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="n">
         <v>42862</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="2" t="n">
         <v>1000</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="2">
-        <f t="shared" ref="G5:G35" si="0">C5-F5</f>
+      <c r="G5" s="2" t="n">
+        <f aca="false">C5-F5</f>
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="8">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="n">
         <v>42862</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="2" t="n">
         <v>2500</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="2">
-        <f t="shared" si="0"/>
+      <c r="G6" s="2" t="n">
+        <f aca="false">C6-F6</f>
         <v>2500</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="8">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="n">
         <v>42863</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="2" t="n">
         <v>100</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="2">
-        <f t="shared" si="0"/>
+      <c r="G7" s="2" t="n">
+        <f aca="false">C7-F7</f>
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="8">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="n">
         <v>42864</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="2" t="n">
         <v>500</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="2">
-        <f t="shared" si="0"/>
+      <c r="G8" s="2" t="n">
+        <f aca="false">C8-F8</f>
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="8">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9" t="n">
         <v>42865</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="2" t="n">
         <v>1000</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="2">
-        <f t="shared" si="0"/>
+      <c r="G9" s="2" t="n">
+        <f aca="false">C9-F9</f>
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="8">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="n">
         <v>42865</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="2" t="n">
         <v>500</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="2" t="n">
         <v>5657</v>
       </c>
-      <c r="G10" s="2">
-        <f t="shared" si="0"/>
+      <c r="G10" s="2" t="n">
+        <f aca="false">C10-F10</f>
         <v>-5157</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="8">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9" t="n">
         <v>42866</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="2" t="n">
         <v>9500</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="2">
-        <f t="shared" si="0"/>
+      <c r="G11" s="2" t="n">
+        <f aca="false">C11-F11</f>
         <v>9500</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="8">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9" t="n">
         <v>42866</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="2" t="n">
         <v>2500</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="2">
-        <f t="shared" si="0"/>
+      <c r="G12" s="2" t="n">
+        <f aca="false">C12-F12</f>
         <v>2500</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="8">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="9" t="n">
         <v>42866</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="2" t="n">
         <v>200</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="2">
-        <f t="shared" si="0"/>
+      <c r="G13" s="2" t="n">
+        <f aca="false">C13-F13</f>
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="8">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="9" t="n">
         <v>42869</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="2" t="n">
         <v>2000</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="2">
-        <f t="shared" si="0"/>
+      <c r="G14" s="2" t="n">
+        <f aca="false">C14-F14</f>
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="8">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="9" t="n">
         <v>42869</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="2" t="n">
         <v>200</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="2">
-        <f t="shared" si="0"/>
+      <c r="G15" s="2" t="n">
+        <f aca="false">C15-F15</f>
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="8">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="9" t="n">
         <v>42869</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="2" t="n">
         <v>300</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="2">
-        <f t="shared" si="0"/>
+      <c r="G16" s="2" t="n">
+        <f aca="false">C16-F16</f>
         <v>300</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="8">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="9" t="n">
         <v>42870</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="2" t="n">
         <v>500</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="2" t="n">
         <v>14122</v>
       </c>
-      <c r="G17" s="2">
-        <f t="shared" si="0"/>
+      <c r="G17" s="2" t="n">
+        <f aca="false">C17-F17</f>
         <v>-13622</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="8">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="9" t="n">
         <v>42871</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="2" t="n">
         <v>500</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="2">
-        <f t="shared" si="0"/>
+      <c r="G18" s="2" t="n">
+        <f aca="false">C18-F18</f>
         <v>500</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="8">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="9" t="n">
         <v>42871</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="2" t="n">
         <v>500</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="2">
-        <f t="shared" si="0"/>
+      <c r="G19" s="2" t="n">
+        <f aca="false">C19-F19</f>
         <v>500</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="8">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="9" t="n">
         <v>42872</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="2" t="n">
         <v>500</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="2">
-        <f t="shared" si="0"/>
+      <c r="G20" s="2" t="n">
+        <f aca="false">C20-F20</f>
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="8">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="9" t="n">
         <v>42876</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="2" t="n">
         <v>1200</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="2">
-        <f t="shared" si="0"/>
+      <c r="G21" s="2" t="n">
+        <f aca="false">C21-F21</f>
         <v>1200</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="8">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="9" t="n">
         <v>42877</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="2" t="n">
         <v>3300</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="2">
-        <f t="shared" si="0"/>
+      <c r="G22" s="2" t="n">
+        <f aca="false">C22-F22</f>
         <v>3300</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="8">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="9" t="n">
         <v>42878</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="2" t="n">
         <v>500</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="2">
-        <f t="shared" si="0"/>
+      <c r="G23" s="2" t="n">
+        <f aca="false">C23-F23</f>
         <v>500</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="8">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="9" t="n">
         <v>42878</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="2" t="n">
         <v>2920</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="2" t="n">
         <v>10835</v>
       </c>
-      <c r="G24" s="2">
-        <f t="shared" si="0"/>
+      <c r="G24" s="2" t="n">
+        <f aca="false">C24-F24</f>
         <v>-7915</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="8">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="9" t="n">
         <v>42878</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="2" t="n">
         <v>1000</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="2">
-        <f t="shared" si="0"/>
+      <c r="G25" s="2" t="n">
+        <f aca="false">C25-F25</f>
         <v>1000</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="8">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="9" t="n">
         <v>42880</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="2" t="n">
         <v>3500</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="2">
-        <f t="shared" si="0"/>
+      <c r="G26" s="2" t="n">
+        <f aca="false">C26-F26</f>
         <v>3500</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="8">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="9" t="n">
         <v>42882</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="2" t="n">
         <v>500</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="2">
-        <f t="shared" si="0"/>
+      <c r="G27" s="2" t="n">
+        <f aca="false">C27-F27</f>
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="8">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="9" t="n">
         <v>42883</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="2" t="n">
         <v>500</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="2">
-        <f t="shared" si="0"/>
+      <c r="G28" s="2" t="n">
+        <f aca="false">C28-F28</f>
         <v>500</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="8">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="9" t="n">
         <v>42884</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="2" t="n">
         <v>500</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="2">
-        <f t="shared" si="0"/>
+      <c r="G29" s="2" t="n">
+        <f aca="false">C29-F29</f>
         <v>500</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="8">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="9" t="n">
         <v>42884</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="2" t="n">
         <v>900</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="2">
-        <f t="shared" si="0"/>
+      <c r="G30" s="2" t="n">
+        <f aca="false">C30-F30</f>
         <v>900</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="8">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="9" t="n">
         <v>42887</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="2" t="n">
         <v>1000</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="2">
-        <f t="shared" si="0"/>
+      <c r="G31" s="2" t="n">
+        <f aca="false">C31-F31</f>
         <v>1000</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="8">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="9" t="n">
         <v>42889</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="2" t="n">
         <v>500</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="2">
-        <f t="shared" si="0"/>
+      <c r="G32" s="2" t="n">
+        <f aca="false">C32-F32</f>
         <v>500</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="8">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="9" t="n">
         <v>42889</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="2" t="n">
         <v>500</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="2"/>
-      <c r="G33" s="2">
-        <f t="shared" si="0"/>
+      <c r="G33" s="2" t="n">
+        <f aca="false">C33-F33</f>
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="8">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="9" t="n">
         <v>42889</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="2" t="n">
         <v>2500</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="2"/>
-      <c r="G34" s="2">
-        <f t="shared" si="0"/>
+      <c r="G34" s="2" t="n">
+        <f aca="false">C34-F34</f>
         <v>2500</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="8">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="9" t="n">
         <v>42892</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="2" t="n">
         <v>3500</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="2"/>
-      <c r="G35" s="2">
-        <f t="shared" si="0"/>
+      <c r="G35" s="2" t="n">
+        <f aca="false">C35-F35</f>
         <v>3500</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="2"/>
@@ -5898,18 +6126,18 @@
         <v>170</v>
       </c>
       <c r="F36" s="2"/>
-      <c r="G36" s="2">
+      <c r="G36" s="2" t="n">
         <v>14547</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="8">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="9" t="n">
         <v>42895</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="2" t="n">
         <v>500</v>
       </c>
       <c r="D37" s="1"/>
@@ -5921,6 +6149,12 @@
   <mergeCells count="1">
     <mergeCell ref="G1:H1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>